--- a/data/strategies/广发场内策略结果.xlsx
+++ b/data/strategies/广发场内策略结果.xlsx
@@ -18,23 +18,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="194">
   <si>
     <t>易方达中证生物科技主题ETF</t>
   </si>
   <si>
+    <t>富国中证细分机械设备产业ETF</t>
+  </si>
+  <si>
     <t>富国中证娱乐主题指数增强（LOF)</t>
   </si>
   <si>
-    <t>富国中证细分机械设备产业ETF</t>
+    <t>鹏华中证酒ETF</t>
   </si>
   <si>
     <t>平安中证新能源汽车产业ETF</t>
   </si>
   <si>
-    <t>鹏华中证酒ETF</t>
-  </si>
-  <si>
     <t>“由短及长”+“由内而外”</t>
   </si>
   <si>
@@ -65,73 +65,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>5.22%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>26.01%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>11.93%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>22.71%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>23.16%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>30.77%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>4.02%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>17.47%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>11.33%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>22.50%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>21.36%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>27.55%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -143,103 +140,106 @@
     <t>159837.OF</t>
   </si>
   <si>
+    <t>159886.OF</t>
+  </si>
+  <si>
     <t>161036.OF</t>
   </si>
   <si>
-    <t>159886.OF</t>
+    <t>512690.OF</t>
   </si>
   <si>
     <t>515700.OF</t>
   </si>
   <si>
-    <t>512690.OF</t>
-  </si>
-  <si>
-    <t>-0.78%</t>
-  </si>
-  <si>
-    <t>-6.04%</t>
-  </si>
-  <si>
-    <t>17.16%</t>
-  </si>
-  <si>
-    <t>-3.91%</t>
-  </si>
-  <si>
-    <t>23.40%</t>
-  </si>
-  <si>
-    <t>-1.52%</t>
-  </si>
-  <si>
-    <t>24.48%</t>
-  </si>
-  <si>
-    <t>47.36%</t>
-  </si>
-  <si>
-    <t>23.84%</t>
-  </si>
-  <si>
-    <t>11.25%</t>
-  </si>
-  <si>
-    <t>-3.57%</t>
-  </si>
-  <si>
-    <t>14.67%</t>
-  </si>
-  <si>
-    <t>23.56%</t>
-  </si>
-  <si>
-    <t>5.65%</t>
-  </si>
-  <si>
-    <t>25.37%</t>
-  </si>
-  <si>
-    <t>12.56%</t>
-  </si>
-  <si>
-    <t>28.79%</t>
-  </si>
-  <si>
-    <t>41.84%</t>
-  </si>
-  <si>
-    <t>32.39%</t>
-  </si>
-  <si>
-    <t>27.95%</t>
-  </si>
-  <si>
-    <t>15.71%</t>
-  </si>
-  <si>
-    <t>27.94%</t>
-  </si>
-  <si>
-    <t>37.04%</t>
-  </si>
-  <si>
-    <t>31.39%</t>
-  </si>
-  <si>
-    <t>33.95%</t>
-  </si>
-  <si>
-    <t>18.02%</t>
-  </si>
-  <si>
-    <t>36.90%</t>
-  </si>
-  <si>
-    <t>42.46%</t>
-  </si>
-  <si>
-    <t>40.03%</t>
+    <t>-5.14%</t>
+  </si>
+  <si>
+    <t>16.87%</t>
+  </si>
+  <si>
+    <t>-10.63%</t>
+  </si>
+  <si>
+    <t>-8.51%</t>
+  </si>
+  <si>
+    <t>27.72%</t>
+  </si>
+  <si>
+    <t>7.39%</t>
+  </si>
+  <si>
+    <t>22.83%</t>
+  </si>
+  <si>
+    <t>-10.48%</t>
+  </si>
+  <si>
+    <t>10.23%</t>
+  </si>
+  <si>
+    <t>57.99%</t>
+  </si>
+  <si>
+    <t>3.77%</t>
+  </si>
+  <si>
+    <t>20.60%</t>
+  </si>
+  <si>
+    <t>-9.75%</t>
+  </si>
+  <si>
+    <t>-1.12%</t>
+  </si>
+  <si>
+    <t>43.99%</t>
+  </si>
+  <si>
+    <t>31.97%</t>
+  </si>
+  <si>
+    <t>30.38%</t>
+  </si>
+  <si>
+    <t>14.42%</t>
+  </si>
+  <si>
+    <t>29.15%</t>
+  </si>
+  <si>
+    <t>39.73%</t>
+  </si>
+  <si>
+    <t>30.49%</t>
+  </si>
+  <si>
+    <t>28.32%</t>
+  </si>
+  <si>
+    <t>16.51%</t>
+  </si>
+  <si>
+    <t>30.16%</t>
+  </si>
+  <si>
+    <t>37.61%</t>
+  </si>
+  <si>
+    <t>34.36%</t>
+  </si>
+  <si>
+    <t>36.55%</t>
+  </si>
+  <si>
+    <t>18.08%</t>
+  </si>
+  <si>
+    <t>39.57%</t>
+  </si>
+  <si>
+    <t>42.17%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -254,18 +254,21 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>300750.SZ</t>
   </si>
   <si>
+    <t>601012.SH</t>
+  </si>
+  <si>
+    <t>002594.SZ</t>
+  </si>
+  <si>
     <t>300014.SZ</t>
   </si>
   <si>
-    <t>601012.SH</t>
-  </si>
-  <si>
     <t>300124.SZ</t>
   </si>
   <si>
@@ -281,111 +284,111 @@
     <t>000858.SZ</t>
   </si>
   <si>
-    <t>601888.SH</t>
-  </si>
-  <si>
     <t>000860.SZ</t>
   </si>
   <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>600809.SH</t>
+  </si>
+  <si>
+    <t>600031.SH</t>
+  </si>
+  <si>
     <t>002460.SZ</t>
   </si>
   <si>
-    <t>600031.SH</t>
+    <t>603799.SH</t>
+  </si>
+  <si>
+    <t>603589.SH</t>
+  </si>
+  <si>
+    <t>603259.SH</t>
   </si>
   <si>
     <t>300450.SZ</t>
   </si>
   <si>
-    <t>600809.SH</t>
-  </si>
-  <si>
-    <t>603259.SH</t>
-  </si>
-  <si>
-    <t>002594.SZ</t>
-  </si>
-  <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
     <t>300760.SZ</t>
   </si>
   <si>
-    <t>603589.SH</t>
-  </si>
-  <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
-    <t>7.37%</t>
-  </si>
-  <si>
-    <t>3.63%</t>
-  </si>
-  <si>
-    <t>2.82%</t>
-  </si>
-  <si>
-    <t>2.73%</t>
-  </si>
-  <si>
-    <t>2.67%</t>
-  </si>
-  <si>
-    <t>2.54%</t>
-  </si>
-  <si>
-    <t>2.47%</t>
-  </si>
-  <si>
-    <t>2.46%</t>
-  </si>
-  <si>
-    <t>2.00%</t>
-  </si>
-  <si>
-    <t>1.92%</t>
-  </si>
-  <si>
-    <t>1.91%</t>
-  </si>
-  <si>
-    <t>1.88%</t>
-  </si>
-  <si>
-    <t>1.74%</t>
-  </si>
-  <si>
-    <t>1.64%</t>
-  </si>
-  <si>
-    <t>1.53%</t>
-  </si>
-  <si>
-    <t>1.46%</t>
-  </si>
-  <si>
-    <t>1.43%</t>
-  </si>
-  <si>
-    <t>1.42%</t>
-  </si>
-  <si>
-    <t>1.39%</t>
-  </si>
-  <si>
-    <t>1.38%</t>
+    <t>600276.SH</t>
+  </si>
+  <si>
+    <t>713.45%</t>
+  </si>
+  <si>
+    <t>345.10%</t>
+  </si>
+  <si>
+    <t>286.05%</t>
+  </si>
+  <si>
+    <t>274.85%</t>
+  </si>
+  <si>
+    <t>268.27%</t>
+  </si>
+  <si>
+    <t>267.35%</t>
+  </si>
+  <si>
+    <t>254.50%</t>
+  </si>
+  <si>
+    <t>246.88%</t>
+  </si>
+  <si>
+    <t>246.47%</t>
+  </si>
+  <si>
+    <t>191.67%</t>
+  </si>
+  <si>
+    <t>179.28%</t>
+  </si>
+  <si>
+    <t>164.35%</t>
+  </si>
+  <si>
+    <t>154.88%</t>
+  </si>
+  <si>
+    <t>139.97%</t>
+  </si>
+  <si>
+    <t>139.33%</t>
+  </si>
+  <si>
+    <t>138.53%</t>
+  </si>
+  <si>
+    <t>135.01%</t>
+  </si>
+  <si>
+    <t>131.67%</t>
+  </si>
+  <si>
+    <t>125.24%</t>
+  </si>
+  <si>
+    <t>125.05%</t>
   </si>
   <si>
     <t>宁德时代</t>
   </si>
   <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
     <t>亿纬锂能</t>
   </si>
   <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
     <t>汇川技术</t>
   </si>
   <si>
@@ -401,51 +404,51 @@
     <t>五粮液</t>
   </si>
   <si>
-    <t>中国中免</t>
-  </si>
-  <si>
     <t>顺鑫农业</t>
   </si>
   <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>山西汾酒</t>
+  </si>
+  <si>
+    <t>三一重工</t>
+  </si>
+  <si>
     <t>赣锋锂业</t>
   </si>
   <si>
-    <t>三一重工</t>
+    <t>华友钴业</t>
+  </si>
+  <si>
+    <t>口子窖</t>
+  </si>
+  <si>
+    <t>药明康德</t>
   </si>
   <si>
     <t>先导智能</t>
   </si>
   <si>
-    <t>山西汾酒</t>
-  </si>
-  <si>
-    <t>药明康德</t>
-  </si>
-  <si>
-    <t>比亚迪</t>
-  </si>
-  <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
     <t>迈瑞医疗</t>
   </si>
   <si>
-    <t>口子窖</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
+    <t>恒瑞医药</t>
   </si>
   <si>
     <t>动力电池系统</t>
   </si>
   <si>
+    <t>太阳能组件</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
     <t>锂离子电池</t>
   </si>
   <si>
-    <t>太阳能组件</t>
-  </si>
-  <si>
     <t>变频器类</t>
   </si>
   <si>
@@ -461,94 +464,91 @@
     <t>酒类</t>
   </si>
   <si>
-    <t>商品贸易-免税商品</t>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>挖掘机械</t>
   </si>
   <si>
     <t>锂系列产品</t>
   </si>
   <si>
-    <t>挖掘机械</t>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>高档白酒</t>
+  </si>
+  <si>
+    <t>中国区实验室服务</t>
   </si>
   <si>
     <t>锂电池设备</t>
   </si>
   <si>
-    <t>中国区实验室服务</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
     <t>生命信息与支持类产品</t>
   </si>
   <si>
-    <t>高档白酒</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>34.17%</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>17.94%</t>
-  </si>
-  <si>
-    <t>-6.90%</t>
-  </si>
-  <si>
-    <t>4.71%</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>17.41%</t>
-  </si>
-  <si>
-    <t>-39.72%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>-14.61%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>22.60%</t>
-  </si>
-  <si>
-    <t>44.35%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
-  </si>
-  <si>
-    <t>12.99%</t>
-  </si>
-  <si>
-    <t>6.19%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
+    <t>抗肿瘤</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>62.80%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>-15.98%</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>-47.82%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>19.71%</t>
+  </si>
+  <si>
+    <t>-23.86%</t>
+  </si>
+  <si>
+    <t>65.23%</t>
+  </si>
+  <si>
+    <t>104.69%</t>
+  </si>
+  <si>
+    <t>0.92%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>10.26%</t>
+  </si>
+  <si>
+    <t>-32.63%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -563,49 +563,43 @@
     <t>锂电池</t>
   </si>
   <si>
-    <t>太阳能光伏</t>
+    <t>光伏太阳能</t>
   </si>
   <si>
     <t xml:space="preserve">锂电池 </t>
   </si>
   <si>
-    <t>商业贸易</t>
+    <t>医药生物</t>
   </si>
   <si>
     <t>机械设备</t>
   </si>
   <si>
-    <t>医药生物</t>
-  </si>
-  <si>
     <t>医疗器械</t>
   </si>
   <si>
-    <t>32.53%</t>
-  </si>
-  <si>
-    <t>29.81%</t>
-  </si>
-  <si>
-    <t>11.96%</t>
-  </si>
-  <si>
-    <t>7.82%</t>
-  </si>
-  <si>
-    <t>4.31%</t>
-  </si>
-  <si>
-    <t>4.05%</t>
-  </si>
-  <si>
-    <t>3.30%</t>
-  </si>
-  <si>
-    <t>3.15%</t>
-  </si>
-  <si>
-    <t>3.06%</t>
+    <t>15.21%</t>
+  </si>
+  <si>
+    <t>13.13%</t>
+  </si>
+  <si>
+    <t>6.18%</t>
+  </si>
+  <si>
+    <t>2.88%</t>
+  </si>
+  <si>
+    <t>2.77%</t>
+  </si>
+  <si>
+    <t>2.62%</t>
+  </si>
+  <si>
+    <t>1.56%</t>
+  </si>
+  <si>
+    <t>1.26%</t>
   </si>
 </sst>
 </file>
@@ -969,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1041,19 +1035,19 @@
         <v>1.004127322376041</v>
       </c>
       <c r="C3">
+        <v>1.064836999224328</v>
+      </c>
+      <c r="D3">
         <v>1.007722007722008</v>
       </c>
-      <c r="D3">
-        <v>1.064836999224328</v>
-      </c>
       <c r="E3">
+        <v>1.035618479880775</v>
+      </c>
+      <c r="F3">
         <v>1.07818653347421</v>
       </c>
-      <c r="F3">
-        <v>1.035618479880775</v>
-      </c>
       <c r="G3">
-        <v>1.046141669407084</v>
+        <v>1.039002295469294</v>
       </c>
       <c r="H3">
         <v>1.018168368380631</v>
@@ -1070,19 +1064,19 @@
         <v>1.013941672636526</v>
       </c>
       <c r="C4">
+        <v>1.079573026780003</v>
+      </c>
+      <c r="D4">
         <v>1.002895752895753</v>
       </c>
-      <c r="D4">
-        <v>1.079573026780003</v>
-      </c>
       <c r="E4">
+        <v>1.088040238450074</v>
+      </c>
+      <c r="F4">
         <v>1.091441744308904</v>
       </c>
-      <c r="F4">
-        <v>1.088040238450074</v>
-      </c>
       <c r="G4">
-        <v>1.06686843057628</v>
+        <v>1.057283771340749</v>
       </c>
       <c r="H4">
         <v>1.027111201157197</v>
@@ -1099,19 +1093,19 @@
         <v>1.037618572711903</v>
       </c>
       <c r="C5">
+        <v>1.086848968240705</v>
+      </c>
+      <c r="D5">
         <v>0.9973455598455598</v>
       </c>
-      <c r="D5">
-        <v>1.086848968240705</v>
-      </c>
       <c r="E5">
+        <v>1.090089418777943</v>
+      </c>
+      <c r="F5">
         <v>1.079195082124676</v>
       </c>
-      <c r="F5">
-        <v>1.090089418777943</v>
-      </c>
       <c r="G5">
-        <v>1.068403883855514</v>
+        <v>1.057215957806121</v>
       </c>
       <c r="H5">
         <v>1.025290909062353</v>
@@ -1128,19 +1122,19 @@
         <v>1.040792114227864</v>
       </c>
       <c r="C6">
+        <v>1.132719877079329</v>
+      </c>
+      <c r="D6">
         <v>0.9835907335907337</v>
       </c>
-      <c r="D6">
-        <v>1.132719877079329</v>
-      </c>
       <c r="E6">
+        <v>1.101304023845007</v>
+      </c>
+      <c r="F6">
         <v>1.111756795696859</v>
       </c>
-      <c r="F6">
-        <v>1.101304023845007</v>
-      </c>
       <c r="G6">
-        <v>1.089493030132624</v>
+        <v>1.070851887196549</v>
       </c>
       <c r="H6">
         <v>1.026858339183711</v>
@@ -1157,19 +1151,19 @@
         <v>1.043334797371669</v>
       </c>
       <c r="C7">
+        <v>1.118095518166899</v>
+      </c>
+      <c r="D7">
         <v>1.001206563706564</v>
       </c>
-      <c r="D7">
-        <v>1.118095518166899</v>
-      </c>
       <c r="E7">
+        <v>1.069932935916542</v>
+      </c>
+      <c r="F7">
         <v>1.098261454231102</v>
       </c>
-      <c r="F7">
-        <v>1.069932935916542</v>
-      </c>
       <c r="G7">
-        <v>1.077140147213415</v>
+        <v>1.062529027905873</v>
       </c>
       <c r="H7">
         <v>1.029917812005761</v>
@@ -1186,19 +1180,19 @@
         <v>1.03189027673108</v>
       </c>
       <c r="C8">
+        <v>1.089060901222685</v>
+      </c>
+      <c r="D8">
         <v>1.008445945945946</v>
       </c>
-      <c r="D8">
-        <v>1.089060901222685</v>
-      </c>
       <c r="E8">
+        <v>1.034239940387481</v>
+      </c>
+      <c r="F8">
         <v>1.055998463163961</v>
       </c>
-      <c r="F8">
-        <v>1.034239940387481</v>
-      </c>
       <c r="G8">
-        <v>1.04986685402816</v>
+        <v>1.039789984618568</v>
       </c>
       <c r="H8">
         <v>1.013866573688848</v>
@@ -1215,19 +1209,19 @@
         <v>1.048820421710136</v>
       </c>
       <c r="C9">
+        <v>1.132395423494981</v>
+      </c>
+      <c r="D9">
         <v>1.005912162162162</v>
       </c>
-      <c r="D9">
-        <v>1.132395423494981</v>
-      </c>
       <c r="E9">
+        <v>1.066318926974665</v>
+      </c>
+      <c r="F9">
         <v>1.083181250600327</v>
       </c>
-      <c r="F9">
-        <v>1.066318926974665</v>
-      </c>
       <c r="G9">
-        <v>1.07731547325153</v>
+        <v>1.061505065584928</v>
       </c>
       <c r="H9">
         <v>1.027660901099557</v>
@@ -1244,19 +1238,19 @@
         <v>1.023917183822912</v>
       </c>
       <c r="C10">
+        <v>1.118211904329259</v>
+      </c>
+      <c r="D10">
         <v>1.001568532818533</v>
       </c>
-      <c r="D10">
-        <v>1.118211904329259</v>
-      </c>
       <c r="E10">
+        <v>1.053390461997019</v>
+      </c>
+      <c r="F10">
         <v>1.045961002785516</v>
       </c>
-      <c r="F10">
-        <v>1.053390461997019</v>
-      </c>
       <c r="G10">
-        <v>1.057576556858129</v>
+        <v>1.042996135419288</v>
       </c>
       <c r="H10">
         <v>1.020386015005238</v>
@@ -1273,19 +1267,19 @@
         <v>1.005769754522801</v>
       </c>
       <c r="C11">
+        <v>1.085541383672937</v>
+      </c>
+      <c r="D11">
         <v>0.9898648648648649</v>
       </c>
-      <c r="D11">
-        <v>1.085541383672937</v>
-      </c>
       <c r="E11">
+        <v>1.016467958271237</v>
+      </c>
+      <c r="F11">
         <v>1.018345980213236</v>
       </c>
-      <c r="F11">
-        <v>1.016467958271237</v>
-      </c>
       <c r="G11">
-        <v>1.029543157962811</v>
+        <v>1.017583593111802</v>
       </c>
       <c r="H11">
         <v>1.011430617658561</v>
@@ -1302,19 +1296,19 @@
         <v>1.008196251201437</v>
       </c>
       <c r="C12">
+        <v>1.087277505194144</v>
+      </c>
+      <c r="D12">
         <v>0.990588803088803</v>
       </c>
-      <c r="D12">
-        <v>1.087277505194144</v>
-      </c>
       <c r="E12">
+        <v>0.9874068554396422</v>
+      </c>
+      <c r="F12">
         <v>1.040678128902123</v>
       </c>
-      <c r="F12">
-        <v>0.9874068554396422</v>
-      </c>
       <c r="G12">
-        <v>1.028688754170257</v>
+        <v>1.01660266640709</v>
       </c>
       <c r="H12">
         <v>1.007914108598721</v>
@@ -1331,19 +1325,19 @@
         <v>1.010824356521311</v>
       </c>
       <c r="C13">
+        <v>1.102710583442528</v>
+      </c>
+      <c r="D13">
         <v>1.003257722007722</v>
       </c>
-      <c r="D13">
-        <v>1.102710583442528</v>
-      </c>
       <c r="E13">
+        <v>0.9735096870342771</v>
+      </c>
+      <c r="F13">
         <v>1.050859667659207</v>
       </c>
-      <c r="F13">
-        <v>0.9735096870342771</v>
-      </c>
       <c r="G13">
-        <v>1.033530244350132</v>
+        <v>1.021098636670781</v>
       </c>
       <c r="H13">
         <v>1.023142367573358</v>
@@ -1360,19 +1354,19 @@
         <v>0.9887250198916766</v>
       </c>
       <c r="C14">
+        <v>1.07041606147414</v>
+      </c>
+      <c r="D14">
         <v>0.9969835907335908</v>
       </c>
-      <c r="D14">
-        <v>1.07041606147414</v>
-      </c>
       <c r="E14">
+        <v>0.9570789865871833</v>
+      </c>
+      <c r="F14">
         <v>1.02165978292191</v>
       </c>
-      <c r="F14">
-        <v>0.9570789865871833</v>
-      </c>
       <c r="G14">
-        <v>1.010502284073967</v>
+        <v>1.001323225231398</v>
       </c>
       <c r="H14">
         <v>1.017160061629216</v>
@@ -1389,19 +1383,19 @@
         <v>1.027351928802997</v>
       </c>
       <c r="C15">
+        <v>1.11199543075996</v>
+      </c>
+      <c r="D15">
         <v>1.003137065637066</v>
       </c>
-      <c r="D15">
-        <v>1.11199543075996</v>
-      </c>
       <c r="E15">
+        <v>0.9667287630402384</v>
+      </c>
+      <c r="F15">
         <v>1.069685909134569</v>
       </c>
-      <c r="F15">
-        <v>0.9667287630402384</v>
-      </c>
       <c r="G15">
-        <v>1.0409136500387</v>
+        <v>1.027306354398338</v>
       </c>
       <c r="H15">
         <v>1.026434284942462</v>
@@ -1418,19 +1412,19 @@
         <v>1.055443812007164</v>
       </c>
       <c r="C16">
+        <v>1.141350292764891</v>
+      </c>
+      <c r="D16">
         <v>1.012427606177606</v>
       </c>
-      <c r="D16">
-        <v>1.141350292764891</v>
-      </c>
       <c r="E16">
+        <v>0.9926602086438151</v>
+      </c>
+      <c r="F16">
         <v>1.099029872250505</v>
       </c>
-      <c r="F16">
-        <v>0.9926602086438151</v>
-      </c>
       <c r="G16">
-        <v>1.066744020687899</v>
+        <v>1.050628684864488</v>
       </c>
       <c r="H16">
         <v>1.04011081950838</v>
@@ -1447,19 +1441,19 @@
         <v>1.110300216538111</v>
       </c>
       <c r="C17">
+        <v>1.169311773426793</v>
+      </c>
+      <c r="D17">
         <v>1.014720077220077</v>
       </c>
-      <c r="D17">
-        <v>1.169311773426793</v>
-      </c>
       <c r="E17">
+        <v>0.9887108792846497</v>
+      </c>
+      <c r="F17">
         <v>1.13019882816252</v>
       </c>
-      <c r="F17">
-        <v>0.9887108792846497</v>
-      </c>
       <c r="G17">
-        <v>1.087682906938265</v>
+        <v>1.068358944912425</v>
       </c>
       <c r="H17">
         <v>1.042515364113389</v>
@@ -1476,19 +1470,19 @@
         <v>1.118695454091382</v>
       </c>
       <c r="C18">
+        <v>1.170550022878105</v>
+      </c>
+      <c r="D18">
         <v>1.014116795366795</v>
       </c>
-      <c r="D18">
-        <v>1.170550022878105</v>
-      </c>
       <c r="E18">
+        <v>1.046758569299553</v>
+      </c>
+      <c r="F18">
         <v>1.1354336759197</v>
       </c>
-      <c r="F18">
-        <v>1.046758569299553</v>
-      </c>
       <c r="G18">
-        <v>1.104787098206612</v>
+        <v>1.085232944767698</v>
       </c>
       <c r="H18">
         <v>1.043693292561303</v>
@@ -1505,19 +1499,19 @@
         <v>1.076871564205738</v>
       </c>
       <c r="C19">
+        <v>1.143111330235736</v>
+      </c>
+      <c r="D19">
         <v>1.009049227799228</v>
       </c>
-      <c r="D19">
-        <v>1.143111330235736</v>
-      </c>
       <c r="E19">
+        <v>1.02306259314456</v>
+      </c>
+      <c r="F19">
         <v>1.107674574968783</v>
       </c>
-      <c r="F19">
-        <v>1.02306259314456</v>
-      </c>
       <c r="G19">
-        <v>1.07920222358789</v>
+        <v>1.062444460783327</v>
       </c>
       <c r="H19">
         <v>1.026047924411546</v>
@@ -1534,19 +1528,19 @@
         <v>1.066476603911961</v>
       </c>
       <c r="C20">
+        <v>1.173343402505447</v>
+      </c>
+      <c r="D20">
         <v>1.037162162162162</v>
       </c>
-      <c r="D20">
-        <v>1.173343402505447</v>
-      </c>
       <c r="E20">
+        <v>0.9937406855439641</v>
+      </c>
+      <c r="F20">
         <v>1.120785707424839</v>
       </c>
-      <c r="F20">
-        <v>0.9937406855439641</v>
-      </c>
       <c r="G20">
-        <v>1.084922294627828</v>
+        <v>1.067899639584917</v>
       </c>
       <c r="H20">
         <v>1.02984870687015</v>
@@ -1563,19 +1557,19 @@
         <v>1.033218034149328</v>
       </c>
       <c r="C21">
+        <v>1.114061617230356</v>
+      </c>
+      <c r="D21">
         <v>1.021718146718147</v>
       </c>
-      <c r="D21">
-        <v>1.114061617230356</v>
-      </c>
       <c r="E21">
+        <v>0.9790983606557376</v>
+      </c>
+      <c r="F21">
         <v>1.073191816348093</v>
       </c>
-      <c r="F21">
-        <v>0.9790983606557376</v>
-      </c>
       <c r="G21">
-        <v>1.048454971166981</v>
+        <v>1.036912037352955</v>
       </c>
       <c r="H21">
         <v>1.007424090364388</v>
@@ -1592,19 +1586,19 @@
         <v>1.023794932397892</v>
       </c>
       <c r="C22">
+        <v>1.097880501839255</v>
+      </c>
+      <c r="D22">
         <v>1.020632239382239</v>
       </c>
-      <c r="D22">
-        <v>1.097880501839255</v>
-      </c>
       <c r="E22">
+        <v>0.9960134128166913</v>
+      </c>
+      <c r="F22">
         <v>1.052300451445586</v>
       </c>
-      <c r="F22">
-        <v>0.9960134128166913</v>
-      </c>
       <c r="G22">
-        <v>1.0421019879979</v>
+        <v>1.032445955190773</v>
       </c>
       <c r="H22">
         <v>0.9967065120596316</v>
@@ -1621,19 +1615,19 @@
         <v>1.047833503315797</v>
       </c>
       <c r="C23">
+        <v>1.101091952976316</v>
+      </c>
+      <c r="D23">
         <v>1.034749034749035</v>
       </c>
-      <c r="D23">
-        <v>1.101091952976316</v>
-      </c>
       <c r="E23">
+        <v>0.9940760059612518</v>
+      </c>
+      <c r="F23">
         <v>1.048554413600999</v>
       </c>
-      <c r="F23">
-        <v>0.9940760059612518</v>
-      </c>
       <c r="G23">
-        <v>1.046253410392746</v>
+        <v>1.037960545614335</v>
       </c>
       <c r="H23">
         <v>1.004110184997589</v>
@@ -1650,19 +1644,19 @@
         <v>1.065362086966162</v>
       </c>
       <c r="C24">
+        <v>1.137013328468826</v>
+      </c>
+      <c r="D24">
         <v>1.038368725868726</v>
       </c>
-      <c r="D24">
-        <v>1.137013328468826</v>
-      </c>
       <c r="E24">
+        <v>1.036587183308495</v>
+      </c>
+      <c r="F24">
         <v>1.10436077226011</v>
       </c>
-      <c r="F24">
-        <v>1.036587183308495</v>
-      </c>
       <c r="G24">
-        <v>1.082456672613719</v>
+        <v>1.070126097288706</v>
       </c>
       <c r="H24">
         <v>1.013770768841751</v>
@@ -1679,19 +1673,19 @@
         <v>1.080511257949877</v>
       </c>
       <c r="C25">
+        <v>1.143360464903067</v>
+      </c>
+      <c r="D25">
         <v>1.041867760617761</v>
       </c>
-      <c r="D25">
-        <v>1.143360464903067</v>
-      </c>
       <c r="E25">
+        <v>1.039456035767511</v>
+      </c>
+      <c r="F25">
         <v>1.104120641629046</v>
       </c>
-      <c r="F25">
-        <v>1.039456035767511</v>
-      </c>
       <c r="G25">
-        <v>1.087031662895861</v>
+        <v>1.074345074860197</v>
       </c>
       <c r="H25">
         <v>1.00506038061224</v>
@@ -1708,19 +1702,19 @@
         <v>1.068067659695923</v>
       </c>
       <c r="C26">
+        <v>1.139734654198959</v>
+      </c>
+      <c r="D26">
         <v>1.006515444015444</v>
       </c>
-      <c r="D26">
-        <v>1.139734654198959</v>
-      </c>
       <c r="E26">
+        <v>1.046535022354694</v>
+      </c>
+      <c r="F26">
         <v>1.0789069253674</v>
       </c>
-      <c r="F26">
-        <v>1.046535022354694</v>
-      </c>
       <c r="G26">
-        <v>1.075617038444184</v>
+        <v>1.058964637171245</v>
       </c>
       <c r="H26">
         <v>0.9939815709167896</v>
@@ -1737,19 +1731,19 @@
         <v>1.100404047918281</v>
       </c>
       <c r="C27">
+        <v>1.122197425865832</v>
+      </c>
+      <c r="D27">
         <v>1.006756756756757</v>
       </c>
-      <c r="D27">
-        <v>1.122197425865832</v>
-      </c>
       <c r="E27">
+        <v>1.057190760059612</v>
+      </c>
+      <c r="F27">
         <v>1.040774181154548</v>
       </c>
-      <c r="F27">
-        <v>1.057190760059612</v>
-      </c>
       <c r="G27">
-        <v>1.068435692354378</v>
+        <v>1.054005608715743</v>
       </c>
       <c r="H27">
         <v>0.9800160512383169</v>
@@ -1766,19 +1760,19 @@
         <v>1.113552470685185</v>
       </c>
       <c r="C28">
+        <v>1.160187383831868</v>
+      </c>
+      <c r="D28">
         <v>1.021718146718147</v>
       </c>
-      <c r="D28">
-        <v>1.160187383831868</v>
-      </c>
       <c r="E28">
+        <v>1.058271236959761</v>
+      </c>
+      <c r="F28">
         <v>1.066420132552108</v>
       </c>
-      <c r="F28">
-        <v>1.058271236959761</v>
-      </c>
       <c r="G28">
-        <v>1.088128515511351</v>
+        <v>1.070819860872136</v>
       </c>
       <c r="H28">
         <v>0.9930973392952219</v>
@@ -1795,19 +1789,19 @@
         <v>1.129049805523547</v>
       </c>
       <c r="C29">
+        <v>1.196258304680301</v>
+      </c>
+      <c r="D29">
         <v>1.036317567567568</v>
       </c>
-      <c r="D29">
-        <v>1.196258304680301</v>
-      </c>
       <c r="E29">
+        <v>1.085208643815201</v>
+      </c>
+      <c r="F29">
         <v>1.100374603784459</v>
       </c>
-      <c r="F29">
-        <v>1.085208643815201</v>
-      </c>
       <c r="G29">
-        <v>1.11613130970638</v>
+        <v>1.096138717567288</v>
       </c>
       <c r="H29">
         <v>1.014256075362292</v>
@@ -1824,19 +1818,19 @@
         <v>1.160285740475123</v>
       </c>
       <c r="C30">
+        <v>1.214785032647653</v>
+      </c>
+      <c r="D30">
         <v>1.048262548262548</v>
       </c>
-      <c r="D30">
-        <v>1.214785032647653</v>
-      </c>
       <c r="E30">
+        <v>1.13349478390462</v>
+      </c>
+      <c r="F30">
         <v>1.116319277687062</v>
       </c>
-      <c r="F30">
-        <v>1.13349478390462</v>
-      </c>
       <c r="G30">
-        <v>1.142218309652043</v>
+        <v>1.121402999103905</v>
       </c>
       <c r="H30">
         <v>1.024824449396979</v>
@@ -1853,19 +1847,19 @@
         <v>1.094033452179689</v>
       </c>
       <c r="C31">
+        <v>1.194476137689634</v>
+      </c>
+      <c r="D31">
         <v>1.062017374517374</v>
       </c>
-      <c r="D31">
-        <v>1.194476137689634</v>
-      </c>
       <c r="E31">
+        <v>1.091356184798808</v>
+      </c>
+      <c r="F31">
         <v>1.101239074056287</v>
       </c>
-      <c r="F31">
-        <v>1.091356184798808</v>
-      </c>
       <c r="G31">
-        <v>1.116274202473315</v>
+        <v>1.099716857076783</v>
       </c>
       <c r="H31">
         <v>1.038860644782327</v>
@@ -1882,19 +1876,19 @@
         <v>1.084557553048292</v>
       </c>
       <c r="C32">
+        <v>1.170724968350102</v>
+      </c>
+      <c r="D32">
         <v>1.075530888030888</v>
       </c>
-      <c r="D32">
-        <v>1.170724968350102</v>
-      </c>
       <c r="E32">
+        <v>1.089269746646796</v>
+      </c>
+      <c r="F32">
         <v>1.07674574968783</v>
       </c>
-      <c r="F32">
-        <v>1.089269746646796</v>
-      </c>
       <c r="G32">
-        <v>1.104196171306079</v>
+        <v>1.092296911266178</v>
       </c>
       <c r="H32">
         <v>1.052829305603327</v>
@@ -1911,19 +1905,19 @@
         <v>1.03088082715739</v>
       </c>
       <c r="C33">
+        <v>1.126369612185044</v>
+      </c>
+      <c r="D33">
         <v>1.04753861003861</v>
       </c>
-      <c r="D33">
-        <v>1.126369612185044</v>
-      </c>
       <c r="E33">
+        <v>1.005104321907601</v>
+      </c>
+      <c r="F33">
         <v>1.056910959562002</v>
       </c>
-      <c r="F33">
-        <v>1.005104321907601</v>
-      </c>
       <c r="G33">
-        <v>1.056898653063162</v>
+        <v>1.047044777794857</v>
       </c>
       <c r="H33">
         <v>1.045538713796369</v>
@@ -1940,19 +1934,19 @@
         <v>1.026414526264448</v>
       </c>
       <c r="C34">
+        <v>1.125951491017229</v>
+      </c>
+      <c r="D34">
         <v>1.032335907335907</v>
       </c>
-      <c r="D34">
-        <v>1.125951491017229</v>
-      </c>
       <c r="E34">
+        <v>1.005774962742176</v>
+      </c>
+      <c r="F34">
         <v>1.033618288348862</v>
       </c>
-      <c r="F34">
-        <v>1.005774962742176</v>
-      </c>
       <c r="G34">
-        <v>1.048679989727111</v>
+        <v>1.036978041766946</v>
       </c>
       <c r="H34">
         <v>1.041481928221752</v>
@@ -1969,19 +1963,19 @@
         <v>0.9897813044331062</v>
       </c>
       <c r="C35">
+        <v>1.080099750203639</v>
+      </c>
+      <c r="D35">
         <v>1.030043436293436</v>
       </c>
-      <c r="D35">
-        <v>1.080099750203639</v>
-      </c>
       <c r="E35">
+        <v>0.9494038748137108</v>
+      </c>
+      <c r="F35">
         <v>0.9825665161848046</v>
       </c>
-      <c r="F35">
-        <v>0.9494038748137108</v>
-      </c>
       <c r="G35">
-        <v>1.005495627891356</v>
+        <v>0.999238588652581</v>
       </c>
       <c r="H35">
         <v>1.026555218929781</v>
@@ -1998,19 +1992,19 @@
         <v>0.9886792836485474</v>
       </c>
       <c r="C36">
+        <v>1.071389372569089</v>
+      </c>
+      <c r="D36">
         <v>1.025458494208494</v>
       </c>
-      <c r="D36">
-        <v>1.071389372569089</v>
-      </c>
       <c r="E36">
+        <v>0.9317436661698956</v>
+      </c>
+      <c r="F36">
         <v>0.9625396215541255</v>
       </c>
-      <c r="F36">
-        <v>0.9317436661698956</v>
-      </c>
       <c r="G36">
-        <v>0.9931853873054077</v>
+        <v>0.9874440275103333</v>
       </c>
       <c r="H36">
         <v>1.020737822968348</v>
@@ -2027,19 +2021,19 @@
         <v>0.9786603215662223</v>
       </c>
       <c r="C37">
+        <v>1.047416243955229</v>
+      </c>
+      <c r="D37">
         <v>1.005912162162162</v>
       </c>
-      <c r="D37">
-        <v>1.047416243955229</v>
-      </c>
       <c r="E37">
+        <v>0.9068926974664678</v>
+      </c>
+      <c r="F37">
         <v>0.9374699836711171</v>
       </c>
-      <c r="F37">
-        <v>0.9068926974664678</v>
-      </c>
       <c r="G37">
-        <v>0.9710162917392514</v>
+        <v>0.9658282815151181</v>
       </c>
       <c r="H37">
         <v>0.9995665223311676</v>
@@ -2056,19 +2050,19 @@
         <v>0.9979384703377243</v>
       </c>
       <c r="C38">
+        <v>1.095415374640601</v>
+      </c>
+      <c r="D38">
         <v>1.035714285714286</v>
       </c>
-      <c r="D38">
-        <v>1.095415374640601</v>
-      </c>
       <c r="E38">
+        <v>0.9116616989567808</v>
+      </c>
+      <c r="F38">
         <v>0.980981654019787</v>
       </c>
-      <c r="F38">
-        <v>0.9116616989567808</v>
-      </c>
       <c r="G38">
-        <v>1.001221276410794</v>
+        <v>0.9937586402950042</v>
       </c>
       <c r="H38">
         <v>1.019055741144727</v>
@@ -2085,19 +2079,19 @@
         <v>0.9720724273989513</v>
       </c>
       <c r="C39">
+        <v>1.096756975004088</v>
+      </c>
+      <c r="D39">
         <v>1.02726833976834</v>
       </c>
-      <c r="D39">
-        <v>1.096756975004088</v>
-      </c>
       <c r="E39">
+        <v>0.8868107302533531</v>
+      </c>
+      <c r="F39">
         <v>0.9807415233887236</v>
       </c>
-      <c r="F39">
-        <v>0.8868107302533531</v>
-      </c>
       <c r="G39">
-        <v>0.9909949030574526</v>
+        <v>0.982308823652984</v>
       </c>
       <c r="H39">
         <v>1.010400322909452</v>
@@ -2114,19 +2108,19 @@
         <v>0.9909020181857088</v>
       </c>
       <c r="C40">
+        <v>1.092751255036991</v>
+      </c>
+      <c r="D40">
         <v>1.040781853281853</v>
       </c>
-      <c r="D40">
-        <v>1.092751255036991</v>
-      </c>
       <c r="E40">
+        <v>0.9073025335320417</v>
+      </c>
+      <c r="F40">
         <v>0.9912112189030833</v>
       </c>
-      <c r="F40">
-        <v>0.9073025335320417</v>
-      </c>
       <c r="G40">
-        <v>1.001776735801474</v>
+        <v>0.995280560582082</v>
       </c>
       <c r="H40">
         <v>1.024758485403896</v>
@@ -2143,19 +2137,19 @@
         <v>0.9474461706612607</v>
       </c>
       <c r="C41">
+        <v>1.022998650553657</v>
+      </c>
+      <c r="D41">
         <v>1.02159749034749</v>
       </c>
-      <c r="D41">
-        <v>1.022998650553657</v>
-      </c>
       <c r="E41">
+        <v>0.8619597615499254</v>
+      </c>
+      <c r="F41">
         <v>0.9335798674478917</v>
       </c>
-      <c r="F41">
-        <v>0.8619597615499254</v>
-      </c>
       <c r="G41">
-        <v>0.9507650275139625</v>
+        <v>0.9505898824881917</v>
       </c>
       <c r="H41">
         <v>1.005478152568434</v>
@@ -2172,19 +2166,19 @@
         <v>0.9503171966677352</v>
       </c>
       <c r="C42">
+        <v>1.024189476523347</v>
+      </c>
+      <c r="D42">
         <v>1.024372586872587</v>
       </c>
-      <c r="D42">
-        <v>1.024189476523347</v>
-      </c>
       <c r="E42">
+        <v>0.8716095380029806</v>
+      </c>
+      <c r="F42">
         <v>0.9333397368168285</v>
       </c>
-      <c r="F42">
-        <v>0.8716095380029806</v>
-      </c>
       <c r="G42">
-        <v>0.9541209107783292</v>
+        <v>0.9541437995719843</v>
       </c>
       <c r="H42">
         <v>1.005715308829281</v>
@@ -2201,19 +2195,19 @@
         <v>0.8954351259298817</v>
       </c>
       <c r="C43">
+        <v>0.9697246010415811</v>
+      </c>
+      <c r="D43">
         <v>1.004826254826255</v>
       </c>
-      <c r="D43">
-        <v>0.9697246010415811</v>
-      </c>
       <c r="E43">
+        <v>0.8118479880774961</v>
+      </c>
+      <c r="F43">
         <v>0.8843050619537028</v>
       </c>
-      <c r="F43">
-        <v>0.8118479880774961</v>
-      </c>
       <c r="G43">
-        <v>0.9040020853627121</v>
+        <v>0.9083897920857963</v>
       </c>
       <c r="H43">
         <v>0.9826137761087841</v>
@@ -2230,19 +2224,19 @@
         <v>0.8674222483500562</v>
       </c>
       <c r="C44">
+        <v>0.9405647215503586</v>
+      </c>
+      <c r="D44">
         <v>0.9974662162162162</v>
       </c>
-      <c r="D44">
-        <v>0.9405647215503586</v>
-      </c>
       <c r="E44">
+        <v>0.7886363636363635</v>
+      </c>
+      <c r="F44">
         <v>0.8690807799442898</v>
       </c>
-      <c r="F44">
-        <v>0.7886363636363635</v>
-      </c>
       <c r="G44">
-        <v>0.882681524353537</v>
+        <v>0.8897942111867693</v>
       </c>
       <c r="H44">
         <v>0.9593049279814547</v>
@@ -2259,19 +2253,19 @@
         <v>0.8893784284877434</v>
       </c>
       <c r="C45">
+        <v>0.9575414961981824</v>
+      </c>
+      <c r="D45">
         <v>0.9885376447876448</v>
       </c>
-      <c r="D45">
-        <v>0.9575414961981824</v>
-      </c>
       <c r="E45">
+        <v>0.8135245901639344</v>
+      </c>
+      <c r="F45">
         <v>0.890500432235136</v>
       </c>
-      <c r="F45">
-        <v>0.8135245901639344</v>
-      </c>
       <c r="G45">
-        <v>0.9001311388087366</v>
+        <v>0.9040056573824196</v>
       </c>
       <c r="H45">
         <v>0.952121135020441</v>
@@ -2288,19 +2282,19 @@
         <v>0.9114744689435453</v>
       </c>
       <c r="C46">
+        <v>0.9878844301670798</v>
+      </c>
+      <c r="D46">
         <v>0.9978281853281853</v>
       </c>
-      <c r="D46">
-        <v>0.9878844301670798</v>
-      </c>
       <c r="E46">
+        <v>0.8441505216095379</v>
+      </c>
+      <c r="F46">
         <v>0.9168187493996736</v>
       </c>
-      <c r="F46">
-        <v>0.8441505216095379</v>
-      </c>
       <c r="G46">
-        <v>0.9258762570780391</v>
+        <v>0.9271192264731772</v>
       </c>
       <c r="H46">
         <v>0.9759262836671583</v>
@@ -2317,19 +2311,19 @@
         <v>0.9166699420868117</v>
       </c>
       <c r="C47">
+        <v>1.003011366253994</v>
+      </c>
+      <c r="D47">
         <v>0.9980694980694982</v>
       </c>
-      <c r="D47">
-        <v>1.003011366253994</v>
-      </c>
       <c r="E47">
+        <v>0.8434053651266765</v>
+      </c>
+      <c r="F47">
         <v>0.9207568917491116</v>
       </c>
-      <c r="F47">
-        <v>0.8434053651266765</v>
-      </c>
       <c r="G47">
-        <v>0.9311358358019844</v>
+        <v>0.9305181022789224</v>
       </c>
       <c r="H47">
         <v>0.9772691220977807</v>
@@ -2346,19 +2340,19 @@
         <v>0.8757856668385999</v>
       </c>
       <c r="C48">
+        <v>0.957573314623156</v>
+      </c>
+      <c r="D48">
         <v>0.9827461389961391</v>
       </c>
-      <c r="D48">
-        <v>0.957573314623156</v>
-      </c>
       <c r="E48">
+        <v>0.8051415797317436</v>
+      </c>
+      <c r="F48">
         <v>0.8923734511574297</v>
       </c>
-      <c r="F48">
-        <v>0.8051415797317436</v>
-      </c>
       <c r="G48">
-        <v>0.8960885621074246</v>
+        <v>0.8992351651540476</v>
       </c>
       <c r="H48">
         <v>0.9696502808966706</v>
@@ -2375,19 +2369,19 @@
         <v>0.8876667473911847</v>
       </c>
       <c r="C49">
+        <v>0.9641298964915476</v>
+      </c>
+      <c r="D49">
         <v>0.9908301158301159</v>
       </c>
-      <c r="D49">
-        <v>0.9641298964915476</v>
-      </c>
       <c r="E49">
+        <v>0.8263412816691506</v>
+      </c>
+      <c r="F49">
         <v>0.894870809720488</v>
       </c>
-      <c r="F49">
-        <v>0.8263412816691506</v>
-      </c>
       <c r="G49">
-        <v>0.9061476048729591</v>
+        <v>0.9094851322902802</v>
       </c>
       <c r="H49">
         <v>0.9730065916875945</v>
@@ -2404,19 +2398,19 @@
         <v>0.8905306243628587</v>
       </c>
       <c r="C50">
+        <v>0.9797492298432793</v>
+      </c>
+      <c r="D50">
         <v>0.9973455598455598</v>
       </c>
-      <c r="D50">
-        <v>0.9797492298432793</v>
-      </c>
       <c r="E50">
+        <v>0.8384873323397913</v>
+      </c>
+      <c r="F50">
         <v>0.9174430890404381</v>
       </c>
-      <c r="F50">
-        <v>0.8384873323397913</v>
-      </c>
       <c r="G50">
-        <v>0.9199044358319296</v>
+        <v>0.9221039770822146</v>
       </c>
       <c r="H50">
         <v>0.9777371523344186</v>
@@ -2433,19 +2427,19 @@
         <v>0.9136224902071773</v>
       </c>
       <c r="C51">
+        <v>0.9930284130093138</v>
+      </c>
+      <c r="D51">
         <v>1.005429536679537</v>
       </c>
-      <c r="D51">
-        <v>0.9930284130093138</v>
-      </c>
       <c r="E51">
+        <v>0.8647168405365127</v>
+      </c>
+      <c r="F51">
         <v>0.9207568917491116</v>
       </c>
-      <c r="F51">
-        <v>0.8647168405365127</v>
-      </c>
       <c r="G51">
-        <v>0.9345070396845738</v>
+        <v>0.9360571801433517</v>
       </c>
       <c r="H51">
         <v>0.9853544229642648</v>
@@ -2462,19 +2456,19 @@
         <v>0.8910089651093848</v>
       </c>
       <c r="C52">
+        <v>0.9594343262556518</v>
+      </c>
+      <c r="D52">
         <v>0.9863658301158301</v>
       </c>
-      <c r="D52">
-        <v>0.9594343262556518</v>
-      </c>
       <c r="E52">
+        <v>0.8422131147540983</v>
+      </c>
+      <c r="F52">
         <v>0.8901162232254347</v>
       </c>
-      <c r="F52">
-        <v>0.8422131147540983</v>
-      </c>
       <c r="G52">
-        <v>0.907612765461948</v>
+        <v>0.9109792034444704</v>
       </c>
       <c r="H52">
         <v>0.9747907606433689</v>
@@ -2491,19 +2485,19 @@
         <v>0.8978545321723633</v>
       </c>
       <c r="C53">
+        <v>0.9743116683378479</v>
+      </c>
+      <c r="D53">
         <v>0.9956563706563707</v>
       </c>
-      <c r="D53">
-        <v>0.9743116683378479</v>
-      </c>
       <c r="E53">
+        <v>0.8442622950819672</v>
+      </c>
+      <c r="F53">
         <v>0.9013543367591971</v>
       </c>
-      <c r="F53">
-        <v>0.8442622950819672</v>
-      </c>
       <c r="G53">
-        <v>0.9166709378983449</v>
+        <v>0.9193390256881602</v>
       </c>
       <c r="H53">
         <v>0.9903535512972134</v>
@@ -2520,19 +2514,19 @@
         <v>0.900951045768282</v>
       </c>
       <c r="C54">
+        <v>0.9522220340594204</v>
+      </c>
+      <c r="D54">
         <v>0.9884169884169884</v>
       </c>
-      <c r="D54">
-        <v>0.9522220340594204</v>
-      </c>
       <c r="E54">
+        <v>0.8527570789865871</v>
+      </c>
+      <c r="F54">
         <v>0.8681682835462493</v>
       </c>
-      <c r="F54">
-        <v>0.8527570789865871</v>
-      </c>
       <c r="G54">
-        <v>0.904457853421223</v>
+        <v>0.908982222715919</v>
       </c>
       <c r="H54">
         <v>0.9767649687220733</v>
@@ -2549,19 +2543,19 @@
         <v>0.9015302201347496</v>
       </c>
       <c r="C55">
+        <v>0.9211961771261079</v>
+      </c>
+      <c r="D55">
         <v>0.9791264478764479</v>
       </c>
-      <c r="D55">
-        <v>0.9211961771261079</v>
-      </c>
       <c r="E55">
+        <v>0.8531296572280178</v>
+      </c>
+      <c r="F55">
         <v>0.8384881375468255</v>
       </c>
-      <c r="F55">
-        <v>0.8531296572280178</v>
-      </c>
       <c r="G55">
-        <v>0.8882855764766375</v>
+        <v>0.8955268603204299</v>
       </c>
       <c r="H55">
         <v>0.9647296811269164</v>
@@ -2578,19 +2572,19 @@
         <v>0.913890681559825</v>
       </c>
       <c r="C56">
+        <v>0.9254323106583666</v>
+      </c>
+      <c r="D56">
         <v>0.981418918918919</v>
       </c>
-      <c r="D56">
-        <v>0.9254323106583666</v>
-      </c>
       <c r="E56">
+        <v>0.8469448584202682</v>
+      </c>
+      <c r="F56">
         <v>0.8523676880222841</v>
       </c>
-      <c r="F56">
-        <v>0.8469448584202682</v>
-      </c>
       <c r="G56">
-        <v>0.8930999143350727</v>
+        <v>0.9000982403676417</v>
       </c>
       <c r="H56">
         <v>0.9670651205963146</v>
@@ -2607,19 +2601,19 @@
         <v>0.9428902724387289</v>
       </c>
       <c r="C57">
+        <v>0.966795915517327</v>
+      </c>
+      <c r="D57">
         <v>0.9973455598455598</v>
       </c>
-      <c r="D57">
-        <v>0.966795915517327</v>
-      </c>
       <c r="E57">
+        <v>0.8766020864381519</v>
+      </c>
+      <c r="F57">
         <v>0.8949188358467006</v>
       </c>
-      <c r="F57">
-        <v>0.8766020864381519</v>
-      </c>
       <c r="G57">
-        <v>0.927108688486081</v>
+        <v>0.9309273940271101</v>
       </c>
       <c r="H57">
         <v>0.9818881721848689</v>
@@ -2636,19 +2630,19 @@
         <v>0.9463779612953893</v>
       </c>
       <c r="C58">
+        <v>0.9613277397957485</v>
+      </c>
+      <c r="D58">
         <v>0.9971042471042472</v>
       </c>
-      <c r="D58">
-        <v>0.9613277397957485</v>
-      </c>
       <c r="E58">
+        <v>0.8956780923994038</v>
+      </c>
+      <c r="F58">
         <v>0.8840169051964269</v>
       </c>
-      <c r="F58">
-        <v>0.8956780923994038</v>
-      </c>
       <c r="G58">
-        <v>0.9281909603978493</v>
+        <v>0.9326630238114118</v>
       </c>
       <c r="H58">
         <v>0.9823829021329928</v>
@@ -2665,19 +2659,19 @@
         <v>0.9675903341709375</v>
       </c>
       <c r="C59">
+        <v>0.9855462042326004</v>
+      </c>
+      <c r="D59">
         <v>0.9954150579150579</v>
       </c>
-      <c r="D59">
-        <v>0.9855462042326004</v>
-      </c>
       <c r="E59">
+        <v>0.8993666169895678</v>
+      </c>
+      <c r="F59">
         <v>0.8964076457592931</v>
       </c>
-      <c r="F59">
-        <v>0.8993666169895678</v>
-      </c>
       <c r="G59">
-        <v>0.9407057907561147</v>
+        <v>0.941939397466422</v>
       </c>
       <c r="H59">
         <v>0.9863752942857905</v>
@@ -2694,19 +2688,19 @@
         <v>0.9567762470623217</v>
       </c>
       <c r="C60">
+        <v>0.9740848425701178</v>
+      </c>
+      <c r="D60">
         <v>0.9913127413127414</v>
       </c>
-      <c r="D60">
-        <v>0.9740848425701178</v>
-      </c>
       <c r="E60">
+        <v>0.8858420268256334</v>
+      </c>
+      <c r="F60">
         <v>0.883872826817789</v>
       </c>
-      <c r="F60">
-        <v>0.8858420268256334</v>
-      </c>
       <c r="G60">
-        <v>0.929461047600268</v>
+        <v>0.9316145349430959</v>
       </c>
       <c r="H60">
         <v>0.9822462624330348</v>
@@ -2723,19 +2717,19 @@
         <v>0.9742437416243307</v>
       </c>
       <c r="C61">
+        <v>0.987651620598789</v>
+      </c>
+      <c r="D61">
         <v>1.00132722007722</v>
       </c>
-      <c r="D61">
-        <v>0.987651620598789</v>
-      </c>
       <c r="E61">
+        <v>0.906929955290611</v>
+      </c>
+      <c r="F61">
         <v>0.9008260493708578</v>
       </c>
-      <c r="F61">
-        <v>0.906929955290611</v>
-      </c>
       <c r="G61">
-        <v>0.9457982765277582</v>
+        <v>0.9475077264625622</v>
       </c>
       <c r="H61">
         <v>0.9912911823417532</v>
@@ -2752,19 +2746,19 @@
         <v>0.9782067680469143</v>
       </c>
       <c r="C62">
+        <v>0.9912429189262187</v>
+      </c>
+      <c r="D62">
         <v>1.011703667953668</v>
       </c>
-      <c r="D62">
-        <v>0.9912429189262187</v>
-      </c>
       <c r="E62">
+        <v>0.947354694485842</v>
+      </c>
+      <c r="F62">
         <v>0.913937181826914</v>
       </c>
-      <c r="F62">
-        <v>0.947354694485842</v>
-      </c>
       <c r="G62">
-        <v>0.9618725033098164</v>
+        <v>0.9644300969382475</v>
       </c>
       <c r="H62">
         <v>0.9936391863812625</v>
@@ -2781,19 +2775,19 @@
         <v>0.9650400771521492</v>
       </c>
       <c r="C63">
+        <v>0.9972846580704282</v>
+      </c>
+      <c r="D63">
         <v>1.008566602316602</v>
       </c>
-      <c r="D63">
-        <v>0.9972846580704282</v>
-      </c>
       <c r="E63">
+        <v>0.9347988077496273</v>
+      </c>
+      <c r="F63">
         <v>0.9183075593122659</v>
       </c>
-      <c r="F63">
-        <v>0.9347988077496273</v>
-      </c>
       <c r="G63">
-        <v>0.9592985912166744</v>
+        <v>0.960708834247446</v>
       </c>
       <c r="H63">
         <v>0.9962290583954103</v>
@@ -2810,19 +2804,19 @@
         <v>0.9663052512165702</v>
       </c>
       <c r="C64">
+        <v>0.9818758502164342</v>
+      </c>
+      <c r="D64">
         <v>1.008204633204633</v>
       </c>
-      <c r="D64">
-        <v>0.9818758502164342</v>
-      </c>
       <c r="E64">
+        <v>0.8970566318926975</v>
+      </c>
+      <c r="F64">
         <v>0.911391797137643</v>
       </c>
-      <c r="F64">
-        <v>0.8970566318926975</v>
-      </c>
       <c r="G64">
-        <v>0.9443948053643441</v>
+        <v>0.9476859032378691</v>
       </c>
       <c r="H64">
         <v>0.9970112028848254</v>
@@ -2839,19 +2833,19 @@
         <v>0.9880981169281189</v>
       </c>
       <c r="C65">
+        <v>0.9747396466377068</v>
+      </c>
+      <c r="D65">
         <v>1.003137065637066</v>
       </c>
-      <c r="D65">
-        <v>0.9747396466377068</v>
-      </c>
       <c r="E65">
+        <v>0.9143442622950819</v>
+      </c>
+      <c r="F65">
         <v>0.9065411583901642</v>
       </c>
-      <c r="F65">
-        <v>0.9143442622950819</v>
-      </c>
       <c r="G65">
-        <v>0.9478106646513863</v>
+        <v>0.9513603420263063</v>
       </c>
       <c r="H65">
         <v>0.9983728881706143</v>
@@ -2868,19 +2862,19 @@
         <v>0.9688127312238475</v>
       </c>
       <c r="C66">
+        <v>0.9524671215919324</v>
+      </c>
+      <c r="D66">
         <v>1.005550193050193</v>
       </c>
-      <c r="D66">
-        <v>0.9524671215919324</v>
-      </c>
       <c r="E66">
+        <v>0.8903129657228018</v>
+      </c>
+      <c r="F66">
         <v>0.8905964844875613</v>
       </c>
-      <c r="F66">
-        <v>0.8903129657228018</v>
-      </c>
       <c r="G66">
-        <v>0.930139508484829</v>
+        <v>0.9367748924171115</v>
       </c>
       <c r="H66">
         <v>0.9949945893819959</v>
@@ -2897,19 +2891,19 @@
         <v>0.9436396026232445</v>
       </c>
       <c r="C67">
+        <v>0.9278043537561812</v>
+      </c>
+      <c r="D67">
         <v>0.9847972972972974</v>
       </c>
-      <c r="D67">
-        <v>0.9278043537561812</v>
-      </c>
       <c r="E67">
+        <v>0.8872578241430701</v>
+      </c>
+      <c r="F67">
         <v>0.8604841033522237</v>
       </c>
-      <c r="F67">
-        <v>0.8872578241430701</v>
-      </c>
       <c r="G67">
-        <v>0.9099411828029365</v>
+        <v>0.917065300745576</v>
       </c>
       <c r="H67">
         <v>0.9779036328883906</v>
@@ -2926,19 +2920,19 @@
         <v>0.9583567843893441</v>
       </c>
       <c r="C68">
+        <v>0.9331816427476655</v>
+      </c>
+      <c r="D68">
         <v>0.9634411196911197</v>
       </c>
-      <c r="D68">
-        <v>0.9331816427476655</v>
-      </c>
       <c r="E68">
+        <v>0.8989195230998509</v>
+      </c>
+      <c r="F68">
         <v>0.8655748727307656</v>
       </c>
-      <c r="F68">
-        <v>0.8989195230998509</v>
-      </c>
       <c r="G68">
-        <v>0.9146437476546284</v>
+        <v>0.9184261822725601</v>
       </c>
       <c r="H68">
         <v>0.9752902023052845</v>
@@ -2955,19 +2949,19 @@
         <v>0.9612804466295033</v>
       </c>
       <c r="C69">
+        <v>0.9573434845406216</v>
+      </c>
+      <c r="D69">
         <v>0.9873310810810811</v>
       </c>
-      <c r="D69">
-        <v>0.9573434845406216</v>
-      </c>
       <c r="E69">
+        <v>0.9118852459016392</v>
+      </c>
+      <c r="F69">
         <v>0.9065411583901642</v>
       </c>
-      <c r="F69">
-        <v>0.9118852459016392</v>
-      </c>
       <c r="G69">
-        <v>0.9375189131719293</v>
+        <v>0.9412673627394869</v>
       </c>
       <c r="H69">
         <v>0.9858805643376666</v>
@@ -2984,19 +2978,19 @@
         <v>0.9594471586930292</v>
       </c>
       <c r="C70">
+        <v>0.9588850704709834</v>
+      </c>
+      <c r="D70">
         <v>0.974903474903475</v>
       </c>
-      <c r="D70">
-        <v>0.9588850704709834</v>
-      </c>
       <c r="E70">
+        <v>0.9050670640834574</v>
+      </c>
+      <c r="F70">
         <v>0.9049082700989339</v>
       </c>
-      <c r="F70">
-        <v>0.9050670640834574</v>
-      </c>
       <c r="G70">
-        <v>0.9340089303629067</v>
+        <v>0.9360112309169681</v>
       </c>
       <c r="H70">
         <v>0.9857627714928752</v>
@@ -3013,19 +3007,19 @@
         <v>0.9537038907581775</v>
       </c>
       <c r="C71">
+        <v>0.9539997194069288</v>
+      </c>
+      <c r="D71">
         <v>0.9832287644787645</v>
       </c>
-      <c r="D71">
-        <v>0.9539997194069288</v>
-      </c>
       <c r="E71">
+        <v>0.9268256333830104</v>
+      </c>
+      <c r="F71">
         <v>0.8990010565747767</v>
       </c>
-      <c r="F71">
-        <v>0.9268256333830104</v>
-      </c>
       <c r="G71">
-        <v>0.9370731842457968</v>
+        <v>0.9407268148797762</v>
       </c>
       <c r="H71">
         <v>0.9956777878817863</v>
@@ -3042,19 +3036,19 @@
         <v>0.9829057495130855</v>
       </c>
       <c r="C72">
+        <v>0.9988562623197857</v>
+      </c>
+      <c r="D72">
         <v>0.9961389961389961</v>
       </c>
-      <c r="D72">
-        <v>0.9988562623197857</v>
-      </c>
       <c r="E72">
+        <v>0.9380402384500744</v>
+      </c>
+      <c r="F72">
         <v>0.9587455575833254</v>
       </c>
-      <c r="F72">
-        <v>0.9380402384500744</v>
-      </c>
       <c r="G72">
-        <v>0.9712911077948065</v>
+        <v>0.9709514495222079</v>
       </c>
       <c r="H72">
         <v>1.009132871899496</v>
@@ -3071,19 +3065,19 @@
         <v>0.9894957678812706</v>
       </c>
       <c r="C73">
+        <v>0.9977594639547586</v>
+      </c>
+      <c r="D73">
         <v>0.9998793436293436</v>
       </c>
-      <c r="D73">
-        <v>0.9977594639547586</v>
-      </c>
       <c r="E73">
+        <v>0.9503353204172875</v>
+      </c>
+      <c r="F73">
         <v>0.9505330900009606</v>
       </c>
-      <c r="F73">
-        <v>0.9503353204172875</v>
-      </c>
       <c r="G73">
-        <v>0.9733288575320784</v>
+        <v>0.9735938424914015</v>
       </c>
       <c r="H73">
         <v>1.009648019274051</v>
@@ -3100,19 +3094,19 @@
         <v>1.009417652077367</v>
       </c>
       <c r="C74">
+        <v>0.9944365800504087</v>
+      </c>
+      <c r="D74">
         <v>1.004826254826255</v>
       </c>
-      <c r="D74">
-        <v>0.9944365800504087</v>
-      </c>
       <c r="E74">
+        <v>0.9720566318926974</v>
+      </c>
+      <c r="F74">
         <v>0.9491403323407934</v>
       </c>
-      <c r="F74">
-        <v>0.9720566318926974</v>
-      </c>
       <c r="G74">
-        <v>0.9806888744339276</v>
+        <v>0.9819875837809083</v>
       </c>
       <c r="H74">
         <v>1.008347586267553</v>
@@ -3129,19 +3123,19 @@
         <v>1.006916193080956</v>
       </c>
       <c r="C75">
+        <v>0.9946952863157321</v>
+      </c>
+      <c r="D75">
         <v>1.007239382239382</v>
       </c>
-      <c r="D75">
-        <v>0.9946952863157321</v>
-      </c>
       <c r="E75">
+        <v>0.9710134128166914</v>
+      </c>
+      <c r="F75">
         <v>0.9515416386514265</v>
       </c>
-      <c r="F75">
-        <v>0.9710134128166914</v>
-      </c>
       <c r="G75">
-        <v>0.9810820313610047</v>
+        <v>0.9826500433514611</v>
       </c>
       <c r="H75">
         <v>1.012306996423809</v>
@@ -3158,19 +3152,19 @@
         <v>1.032292160894361</v>
       </c>
       <c r="C76">
+        <v>1.011937222781352</v>
+      </c>
+      <c r="D76">
         <v>1.003378378378379</v>
       </c>
-      <c r="D76">
-        <v>1.011937222781352</v>
-      </c>
       <c r="E76">
+        <v>0.9826751117734724</v>
+      </c>
+      <c r="F76">
         <v>0.9658053981365864</v>
       </c>
-      <c r="F76">
-        <v>0.9826751117734724</v>
-      </c>
       <c r="G76">
-        <v>0.9945632505819451</v>
+        <v>0.9934933950315734</v>
       </c>
       <c r="H76">
         <v>1.015022514139068</v>
@@ -3187,19 +3181,19 @@
         <v>1.036403617687023</v>
       </c>
       <c r="C77">
+        <v>0.9875027952852568</v>
+      </c>
+      <c r="D77">
         <v>1.007239382239382</v>
       </c>
-      <c r="D77">
-        <v>0.9875027952852568</v>
-      </c>
       <c r="E77">
+        <v>0.96602086438152</v>
+      </c>
+      <c r="F77">
         <v>0.9528863701853809</v>
       </c>
-      <c r="F77">
-        <v>0.96602086438152</v>
-      </c>
       <c r="G77">
-        <v>0.9820578824538401</v>
+        <v>0.9845249558231056</v>
       </c>
       <c r="H77">
         <v>1.011864095327393</v>
@@ -3216,19 +3210,19 @@
         <v>1.062571238556948</v>
       </c>
       <c r="C78">
+        <v>0.9833019065865914</v>
+      </c>
+      <c r="D78">
         <v>1.008204633204633</v>
       </c>
-      <c r="D78">
-        <v>0.9833019065865914</v>
-      </c>
       <c r="E78">
+        <v>0.9794336810730253</v>
+      </c>
+      <c r="F78">
         <v>0.9460186341369706</v>
       </c>
-      <c r="F78">
-        <v>0.9794336810730253</v>
-      </c>
       <c r="G78">
-        <v>0.9860355394193445</v>
+        <v>0.9891483802465997</v>
       </c>
       <c r="H78">
         <v>1.012434212696184</v>
@@ -3245,19 +3239,19 @@
         <v>1.087231292063665</v>
       </c>
       <c r="C79">
+        <v>1.008222176478839</v>
+      </c>
+      <c r="D79">
         <v>1.016167953667954</v>
       </c>
-      <c r="D79">
-        <v>1.008222176478839</v>
-      </c>
       <c r="E79">
+        <v>1.002272727272727</v>
+      </c>
+      <c r="F79">
         <v>0.9720487945442321</v>
       </c>
-      <c r="F79">
-        <v>1.002272727272727</v>
-      </c>
       <c r="G79">
-        <v>1.008560830290402</v>
+        <v>1.009554052439041</v>
       </c>
       <c r="H79">
         <v>1.019259915409032</v>
@@ -3274,19 +3268,19 @@
         <v>1.081834473973067</v>
       </c>
       <c r="C80">
+        <v>1.010195961647215</v>
+      </c>
+      <c r="D80">
         <v>1.009773166023166</v>
       </c>
-      <c r="D80">
-        <v>1.010195961647215</v>
-      </c>
       <c r="E80">
+        <v>1.002496274217586</v>
+      </c>
+      <c r="F80">
         <v>0.9715685332821056</v>
       </c>
-      <c r="F80">
-        <v>1.002496274217586</v>
-      </c>
       <c r="G80">
-        <v>1.007516147286256</v>
+        <v>1.00746329783325</v>
       </c>
       <c r="H80">
         <v>1.019603870515823</v>
@@ -3303,19 +3297,19 @@
         <v>1.104373842484467</v>
       </c>
       <c r="C81">
+        <v>1.023828313191575</v>
+      </c>
+      <c r="D81">
         <v>1.005550193050193</v>
       </c>
-      <c r="D81">
-        <v>1.023828313191575</v>
-      </c>
       <c r="E81">
+        <v>0.9933681073025334</v>
+      </c>
+      <c r="F81">
         <v>0.9920756891749113</v>
       </c>
-      <c r="F81">
-        <v>0.9933681073025334</v>
-      </c>
       <c r="G81">
-        <v>1.016058531859087</v>
+        <v>1.013773766841415</v>
       </c>
       <c r="H81">
         <v>1.018626975189686</v>
@@ -3332,19 +3326,19 @@
         <v>1.055915721552302</v>
       </c>
       <c r="C82">
+        <v>1.015476504253284</v>
+      </c>
+      <c r="D82">
         <v>0.9810569498069499</v>
       </c>
-      <c r="D82">
-        <v>1.015476504253284</v>
-      </c>
       <c r="E82">
+        <v>0.9628912071535022</v>
+      </c>
+      <c r="F82">
         <v>0.9846316396119489</v>
       </c>
-      <c r="F82">
-        <v>0.9628912071535022</v>
-      </c>
       <c r="G82">
-        <v>0.9953714216745904</v>
+        <v>0.9910689773687985</v>
       </c>
       <c r="H82">
         <v>1.01919866312974</v>
@@ -3361,19 +3355,19 @@
         <v>1.02068747550485</v>
       </c>
       <c r="C83">
+        <v>0.9879733678169083</v>
+      </c>
+      <c r="D83">
         <v>0.9666988416988418</v>
       </c>
-      <c r="D83">
-        <v>0.9879733678169083</v>
-      </c>
       <c r="E83">
+        <v>0.9475782414307004</v>
+      </c>
+      <c r="F83">
         <v>0.9554317548746519</v>
       </c>
-      <c r="F83">
-        <v>0.9475782414307004</v>
-      </c>
       <c r="G83">
-        <v>0.9711691306810266</v>
+        <v>0.9685098149162684</v>
       </c>
       <c r="H83">
         <v>1.012145227583629</v>
@@ -3390,19 +3384,19 @@
         <v>1.045176259819247</v>
       </c>
       <c r="C84">
+        <v>0.9855024306210293</v>
+      </c>
+      <c r="D84">
         <v>0.9660955598455598</v>
       </c>
-      <c r="D84">
-        <v>0.9855024306210293</v>
-      </c>
       <c r="E84">
+        <v>0.93301043219076</v>
+      </c>
+      <c r="F84">
         <v>0.9644126404764194</v>
       </c>
-      <c r="F84">
-        <v>0.93301043219076</v>
-      </c>
       <c r="G84">
-        <v>0.972140353280153</v>
+        <v>0.9697144944332193</v>
       </c>
       <c r="H84">
         <v>1.017100379921189</v>
@@ -3419,19 +3413,19 @@
         <v>1.061027017740725</v>
       </c>
       <c r="C85">
+        <v>0.9754708124423276</v>
+      </c>
+      <c r="D85">
         <v>0.964165057915058</v>
       </c>
-      <c r="D85">
-        <v>0.9754708124423276</v>
-      </c>
       <c r="E85">
+        <v>0.9653129657228017</v>
+      </c>
+      <c r="F85">
         <v>0.9444817980981655</v>
       </c>
-      <c r="F85">
-        <v>0.9653129657228017</v>
-      </c>
       <c r="G85">
-        <v>0.9744654035227965</v>
+        <v>0.9730521842068879</v>
       </c>
       <c r="H85">
         <v>1.013967090249737</v>
@@ -3448,19 +3442,19 @@
         <v>1.087965503797537</v>
       </c>
       <c r="C86">
+        <v>0.9719066646788531</v>
+      </c>
+      <c r="D86">
         <v>0.9740588803088803</v>
       </c>
-      <c r="D86">
-        <v>0.9719066646788531</v>
-      </c>
       <c r="E86">
+        <v>0.9804769001490313</v>
+      </c>
+      <c r="F86">
         <v>0.9481798098165403</v>
       </c>
-      <c r="F86">
-        <v>0.9804769001490313</v>
-      </c>
       <c r="G86">
-        <v>0.9828938916744082</v>
+        <v>0.9831629186281617</v>
       </c>
       <c r="H86">
         <v>1.022763859898761</v>
@@ -3477,19 +3471,19 @@
         <v>1.095360858006061</v>
       </c>
       <c r="C87">
+        <v>0.9534158271003422</v>
+      </c>
+      <c r="D87">
         <v>0.9670608108108109</v>
       </c>
-      <c r="D87">
-        <v>0.9534158271003422</v>
-      </c>
       <c r="E87">
+        <v>0.9859165424739195</v>
+      </c>
+      <c r="F87">
         <v>0.9260877917587168</v>
       </c>
-      <c r="F87">
-        <v>0.9859165424739195</v>
-      </c>
       <c r="G87">
-        <v>0.9741577489353537</v>
+        <v>0.9758633718991622</v>
       </c>
       <c r="H87">
         <v>1.011295548529867</v>
@@ -3506,19 +3500,19 @@
         <v>1.117933144306798</v>
       </c>
       <c r="C88">
+        <v>0.9784768404510082</v>
+      </c>
+      <c r="D88">
         <v>0.9781611969111969</v>
       </c>
-      <c r="D88">
-        <v>0.9784768404510082</v>
-      </c>
       <c r="E88">
+        <v>1.004470938897168</v>
+      </c>
+      <c r="F88">
         <v>0.9557679377581405</v>
       </c>
-      <c r="F88">
-        <v>1.004470938897168</v>
-      </c>
       <c r="G88">
-        <v>0.9966907219288286</v>
+        <v>0.9966512664863523</v>
       </c>
       <c r="H88">
         <v>1.024923395386604</v>
@@ -3535,19 +3529,19 @@
         <v>1.143025172381468</v>
       </c>
       <c r="C89">
+        <v>1.00820822255388</v>
+      </c>
+      <c r="D89">
         <v>0.9915540540540541</v>
       </c>
-      <c r="D89">
-        <v>1.00820822255388</v>
-      </c>
       <c r="E89">
+        <v>1.023919523099851</v>
+      </c>
+      <c r="F89">
         <v>1.002449332436846</v>
       </c>
-      <c r="F89">
-        <v>1.023919523099851</v>
-      </c>
       <c r="G89">
-        <v>1.025466672827084</v>
+        <v>1.023384901764606</v>
       </c>
       <c r="H89">
         <v>1.033143765381782</v>
@@ -3564,19 +3558,19 @@
         <v>1.123221379106533</v>
       </c>
       <c r="C90">
+        <v>1.000863988796736</v>
+      </c>
+      <c r="D90">
         <v>0.9960183397683398</v>
       </c>
-      <c r="D90">
-        <v>1.000863988796736</v>
-      </c>
       <c r="E90">
+        <v>1.02876304023845</v>
+      </c>
+      <c r="F90">
         <v>1.003361828834886</v>
       </c>
-      <c r="F90">
-        <v>1.02876304023845</v>
-      </c>
       <c r="G90">
-        <v>1.023152179326877</v>
+        <v>1.022546473198328</v>
       </c>
       <c r="H90">
         <v>1.036514211314081</v>
@@ -3593,19 +3587,19 @@
         <v>1.119504510945736</v>
       </c>
       <c r="C91">
+        <v>1.012187536828461</v>
+      </c>
+      <c r="D91">
         <v>0.9928812741312741</v>
       </c>
-      <c r="D91">
-        <v>1.012187536828461</v>
-      </c>
       <c r="E91">
+        <v>1.01795827123696</v>
+      </c>
+      <c r="F91">
         <v>1.040149841513784</v>
       </c>
-      <c r="F91">
-        <v>1.01795827123696</v>
-      </c>
       <c r="G91">
-        <v>1.031622135529427</v>
+        <v>1.029208852692279</v>
       </c>
       <c r="H91">
         <v>1.034125372421711</v>
@@ -3622,19 +3616,19 @@
         <v>1.122223341619133</v>
       </c>
       <c r="C92">
+        <v>1.012817151826885</v>
+      </c>
+      <c r="D92">
         <v>0.9995173745173745</v>
       </c>
-      <c r="D92">
-        <v>1.012817151826885</v>
-      </c>
       <c r="E92">
+        <v>1.040238450074515</v>
+      </c>
+      <c r="F92">
         <v>1.044616271251561</v>
       </c>
-      <c r="F92">
-        <v>1.040238450074515</v>
-      </c>
       <c r="G92">
-        <v>1.039635557805304</v>
+        <v>1.037973085641615</v>
       </c>
       <c r="H92">
         <v>1.028521574152166</v>
@@ -3651,19 +3645,19 @@
         <v>1.101237774802562</v>
       </c>
       <c r="C93">
+        <v>1.004362736847858</v>
+      </c>
+      <c r="D93">
         <v>0.9923986486486487</v>
       </c>
-      <c r="D93">
-        <v>1.004362736847858</v>
-      </c>
       <c r="E93">
+        <v>1.041207153502235</v>
+      </c>
+      <c r="F93">
         <v>1.040437998271059</v>
       </c>
-      <c r="F93">
-        <v>1.041207153502235</v>
-      </c>
       <c r="G93">
-        <v>1.03320652508669</v>
+        <v>1.031711014061788</v>
       </c>
       <c r="H93">
         <v>1.025246933066964</v>
@@ -3680,19 +3674,19 @@
         <v>1.093003068239749</v>
       </c>
       <c r="C94">
+        <v>1.010270560521841</v>
+      </c>
+      <c r="D94">
         <v>1.00132722007722</v>
       </c>
-      <c r="D94">
-        <v>1.010270560521841</v>
-      </c>
       <c r="E94">
+        <v>1.068405365126676</v>
+      </c>
+      <c r="F94">
         <v>1.046825473057343</v>
       </c>
-      <c r="F94">
-        <v>1.068405365126676</v>
-      </c>
       <c r="G94">
-        <v>1.043166635716086</v>
+        <v>1.042048718160509</v>
       </c>
       <c r="H94">
         <v>1.027800681942043</v>
@@ -3709,19 +3703,19 @@
         <v>1.124618854263747</v>
       </c>
       <c r="C95">
+        <v>1.027854939217063</v>
+      </c>
+      <c r="D95">
         <v>1.022321428571429</v>
       </c>
-      <c r="D95">
-        <v>1.027854939217063</v>
-      </c>
       <c r="E95">
+        <v>1.102906110283159</v>
+      </c>
+      <c r="F95">
         <v>1.060320814523101</v>
       </c>
-      <c r="F95">
-        <v>1.102906110283159</v>
-      </c>
       <c r="G95">
-        <v>1.066138001360228</v>
+        <v>1.065446312529523</v>
       </c>
       <c r="H95">
         <v>1.0396663478407</v>
@@ -3738,19 +3732,19 @@
         <v>1.120316483082725</v>
       </c>
       <c r="C96">
+        <v>1.019992001818778</v>
+      </c>
+      <c r="D96">
         <v>1.01761583011583</v>
       </c>
-      <c r="D96">
-        <v>1.019992001818778</v>
-      </c>
       <c r="E96">
+        <v>1.0924739195231</v>
+      </c>
+      <c r="F96">
         <v>1.051195850542695</v>
       </c>
-      <c r="F96">
-        <v>1.0924739195231</v>
-      </c>
       <c r="G96">
-        <v>1.058156982120962</v>
+        <v>1.057859960658094</v>
       </c>
       <c r="H96">
         <v>1.041007615700059</v>
@@ -3767,19 +3761,19 @@
         <v>1.121273530817313</v>
       </c>
       <c r="C97">
+        <v>1.027098174663985</v>
+      </c>
+      <c r="D97">
         <v>1.026303088803089</v>
       </c>
-      <c r="D97">
-        <v>1.027098174663985</v>
-      </c>
       <c r="E97">
+        <v>1.099478390461997</v>
+      </c>
+      <c r="F97">
         <v>1.054605705503794</v>
       </c>
-      <c r="F97">
-        <v>1.099478390461997</v>
-      </c>
       <c r="G97">
-        <v>1.063742645109994</v>
+        <v>1.063643259377382</v>
       </c>
       <c r="H97">
         <v>1.049991283329486</v>
@@ -3796,19 +3790,19 @@
         <v>1.096874065488938</v>
       </c>
       <c r="C98">
+        <v>1.045181443420068</v>
+      </c>
+      <c r="D98">
         <v>1.016529922779923</v>
       </c>
-      <c r="D98">
-        <v>1.045181443420068</v>
-      </c>
       <c r="E98">
+        <v>1.099850968703428</v>
+      </c>
+      <c r="F98">
         <v>1.100230525405821</v>
       </c>
-      <c r="F98">
-        <v>1.099850968703428</v>
-      </c>
       <c r="G98">
-        <v>1.075491232915937</v>
+        <v>1.071909792835919</v>
       </c>
       <c r="H98">
         <v>1.047283618470546</v>
@@ -3825,19 +3819,19 @@
         <v>1.117570447987966</v>
       </c>
       <c r="C99">
+        <v>1.077606578595302</v>
+      </c>
+      <c r="D99">
         <v>1.013030888030888</v>
       </c>
-      <c r="D99">
-        <v>1.077606578595302</v>
-      </c>
       <c r="E99">
+        <v>1.103725782414307</v>
+      </c>
+      <c r="F99">
         <v>1.15565267505523</v>
       </c>
-      <c r="F99">
-        <v>1.103725782414307</v>
-      </c>
       <c r="G99">
-        <v>1.100571426018567</v>
+        <v>1.092499464698015</v>
       </c>
       <c r="H99">
         <v>1.0568358328975</v>
@@ -3854,19 +3848,19 @@
         <v>1.136906638718238</v>
       </c>
       <c r="C100">
+        <v>1.070294895720047</v>
+      </c>
+      <c r="D100">
         <v>1.016409266409267</v>
       </c>
-      <c r="D100">
-        <v>1.070294895720047</v>
-      </c>
       <c r="E100">
+        <v>1.112220566318927</v>
+      </c>
+      <c r="F100">
         <v>1.144894822783594</v>
       </c>
-      <c r="F100">
-        <v>1.112220566318927</v>
-      </c>
       <c r="G100">
-        <v>1.10101705934658</v>
+        <v>1.094281355682733</v>
       </c>
       <c r="H100">
         <v>1.058527338148705</v>
@@ -3883,19 +3877,19 @@
         <v>1.118010611716685</v>
       </c>
       <c r="C101">
+        <v>1.061065243376252</v>
+      </c>
+      <c r="D101">
         <v>1.003619691119691</v>
       </c>
-      <c r="D101">
-        <v>1.061065243376252</v>
-      </c>
       <c r="E101">
+        <v>1.098211624441133</v>
+      </c>
+      <c r="F101">
         <v>1.139131687638075</v>
       </c>
-      <c r="F101">
-        <v>1.098211624441133</v>
-      </c>
       <c r="G101">
-        <v>1.089805926718412</v>
+        <v>1.082625232686342</v>
       </c>
       <c r="H101">
         <v>1.049366195966459</v>
@@ -3912,19 +3906,19 @@
         <v>1.094844618585296</v>
       </c>
       <c r="C102">
+        <v>1.038995236460245</v>
+      </c>
+      <c r="D102">
         <v>1.005188223938224</v>
       </c>
-      <c r="D102">
-        <v>1.038995236460245</v>
-      </c>
       <c r="E102">
+        <v>1.111251862891207</v>
+      </c>
+      <c r="F102">
         <v>1.133560656997407</v>
       </c>
-      <c r="F102">
-        <v>1.111251862891207</v>
-      </c>
       <c r="G102">
-        <v>1.083456044402655</v>
+        <v>1.079230167837402</v>
       </c>
       <c r="H102">
         <v>1.047214513334935</v>
@@ -3941,19 +3935,19 @@
         <v>1.106112581505772</v>
       </c>
       <c r="C103">
+        <v>1.049185810204051</v>
+      </c>
+      <c r="D103">
         <v>1.010014478764479</v>
       </c>
-      <c r="D103">
-        <v>1.049185810204051</v>
-      </c>
       <c r="E103">
+        <v>1.132786885245902</v>
+      </c>
+      <c r="F103">
         <v>1.162376332725003</v>
       </c>
-      <c r="F103">
-        <v>1.132786885245902</v>
-      </c>
       <c r="G103">
-        <v>1.10060313957752</v>
+        <v>1.095706723147573</v>
       </c>
       <c r="H103">
         <v>1.051192770346358</v>
@@ -3970,19 +3964,19 @@
         <v>1.112879523835607</v>
       </c>
       <c r="C104">
+        <v>1.027612260102204</v>
+      </c>
+      <c r="D104">
         <v>1.017133204633205</v>
       </c>
-      <c r="D104">
-        <v>1.027612260102204</v>
-      </c>
       <c r="E104">
+        <v>1.155663189269746</v>
+      </c>
+      <c r="F104">
         <v>1.137114590337144</v>
       </c>
-      <c r="F104">
-        <v>1.155663189269746</v>
-      </c>
       <c r="G104">
-        <v>1.096349100985875</v>
+        <v>1.09503921905225</v>
       </c>
       <c r="H104">
         <v>1.055659475020849</v>
@@ -3999,19 +3993,19 @@
         <v>1.100170678810963</v>
       </c>
       <c r="C105">
+        <v>1.02929647649863</v>
+      </c>
+      <c r="D105">
         <v>1.021838803088803</v>
       </c>
-      <c r="D105">
-        <v>1.02929647649863</v>
-      </c>
       <c r="E105">
+        <v>1.08204172876304</v>
+      </c>
+      <c r="F105">
         <v>1.128710018249928</v>
       </c>
-      <c r="F105">
-        <v>1.08204172876304</v>
-      </c>
       <c r="G105">
-        <v>1.07526324111537</v>
+        <v>1.074331031939142</v>
       </c>
       <c r="H105">
         <v>1.049857784772055</v>
@@ -4028,19 +4022,19 @@
         <v>1.09399397134201</v>
       </c>
       <c r="C106">
+        <v>1.03198327743756</v>
+      </c>
+      <c r="D106">
         <v>1.009893822393822</v>
       </c>
-      <c r="D106">
-        <v>1.03198327743756</v>
-      </c>
       <c r="E106">
+        <v>1.080849478390462</v>
+      </c>
+      <c r="F106">
         <v>1.127413312842186</v>
       </c>
-      <c r="F106">
-        <v>1.080849478390462</v>
-      </c>
       <c r="G106">
-        <v>1.073047491384531</v>
+        <v>1.070286309504064</v>
       </c>
       <c r="H106">
         <v>1.051167641206136</v>
@@ -4057,19 +4051,19 @@
         <v>1.109314616613305</v>
       </c>
       <c r="C107">
+        <v>1.06555237375444</v>
+      </c>
+      <c r="D107">
         <v>1.010014478764479</v>
       </c>
-      <c r="D107">
-        <v>1.06555237375444</v>
-      </c>
       <c r="E107">
+        <v>1.095230998509687</v>
+      </c>
+      <c r="F107">
         <v>1.169964460666603</v>
       </c>
-      <c r="F107">
-        <v>1.095230998509687</v>
-      </c>
       <c r="G107">
-        <v>1.097603095154905</v>
+        <v>1.09066085828116</v>
       </c>
       <c r="H107">
         <v>1.062591976579641</v>
@@ -4086,19 +4080,19 @@
         <v>1.102577486344575</v>
       </c>
       <c r="C108">
+        <v>1.081025017090765</v>
+      </c>
+      <c r="D108">
         <v>0.9956563706563707</v>
       </c>
-      <c r="D108">
-        <v>1.081025017090765</v>
-      </c>
       <c r="E108">
+        <v>1.065871833084948</v>
+      </c>
+      <c r="F108">
         <v>1.182163096724618</v>
       </c>
-      <c r="F108">
-        <v>1.065871833084948</v>
-      </c>
       <c r="G108">
-        <v>1.094544218850201</v>
+        <v>1.083873138045902</v>
       </c>
       <c r="H108">
         <v>1.056353667519487</v>
@@ -4115,19 +4109,19 @@
         <v>1.080131333629149</v>
       </c>
       <c r="C109">
+        <v>1.066108730646828</v>
+      </c>
+      <c r="D109">
         <v>0.9873310810810811</v>
       </c>
-      <c r="D109">
-        <v>1.066108730646828</v>
-      </c>
       <c r="E109">
+        <v>1.067511177347243</v>
+      </c>
+      <c r="F109">
         <v>1.177408510229565</v>
       </c>
-      <c r="F109">
-        <v>1.067511177347243</v>
-      </c>
       <c r="G109">
-        <v>1.086189906394688</v>
+        <v>1.076342700198969</v>
       </c>
       <c r="H109">
         <v>1.046575290830534</v>
@@ -4144,19 +4138,19 @@
         <v>1.044995072806107</v>
       </c>
       <c r="C110">
+        <v>1.021693263356634</v>
+      </c>
+      <c r="D110">
         <v>0.9738175675675677</v>
       </c>
-      <c r="D110">
-        <v>1.021693263356634</v>
-      </c>
       <c r="E110">
+        <v>1.050521609538003</v>
+      </c>
+      <c r="F110">
         <v>1.10147920468735</v>
       </c>
-      <c r="F110">
-        <v>1.050521609538003</v>
-      </c>
       <c r="G110">
-        <v>1.045775099442206</v>
+        <v>1.039790637468573</v>
       </c>
       <c r="H110">
         <v>1.031282638434078</v>
@@ -4173,19 +4167,19 @@
         <v>1.049654397638662</v>
       </c>
       <c r="C111">
+        <v>1.039040226695167</v>
+      </c>
+      <c r="D111">
         <v>0.9653716216216217</v>
       </c>
-      <c r="D111">
-        <v>1.039040226695167</v>
-      </c>
       <c r="E111">
+        <v>1.077198211624441</v>
+      </c>
+      <c r="F111">
         <v>1.133128421861493</v>
       </c>
-      <c r="F111">
-        <v>1.077198211624441</v>
-      </c>
       <c r="G111">
-        <v>1.064219967452811</v>
+        <v>1.055011391818617</v>
       </c>
       <c r="H111">
         <v>1.03911664789834</v>
@@ -4202,19 +4196,19 @@
         <v>1.05939872251729</v>
       </c>
       <c r="C112">
+        <v>1.06684170897195</v>
+      </c>
+      <c r="D112">
         <v>0.9657335907335908</v>
       </c>
-      <c r="D112">
-        <v>1.06684170897195</v>
-      </c>
       <c r="E112">
+        <v>1.064232488822653</v>
+      </c>
+      <c r="F112">
         <v>1.187926231870138</v>
       </c>
-      <c r="F112">
-        <v>1.064232488822653</v>
-      </c>
       <c r="G112">
-        <v>1.082891646572545</v>
+        <v>1.07025313179275</v>
       </c>
       <c r="H112">
         <v>1.045648653784841</v>
@@ -4231,19 +4225,19 @@
         <v>1.068566158376641</v>
       </c>
       <c r="C113">
+        <v>1.081004197934042</v>
+      </c>
+      <c r="D113">
         <v>0.9734555984555985</v>
       </c>
-      <c r="D113">
-        <v>1.081004197934042</v>
-      </c>
       <c r="E113">
+        <v>1.055663189269747</v>
+      </c>
+      <c r="F113">
         <v>1.192968975122467</v>
       </c>
-      <c r="F113">
-        <v>1.055663189269747</v>
-      </c>
       <c r="G113">
-        <v>1.087661810185594</v>
+        <v>1.074218235250788</v>
       </c>
       <c r="H113">
         <v>1.053410416970965</v>
@@ -4260,19 +4254,19 @@
         <v>1.08644059123514</v>
       </c>
       <c r="C114">
+        <v>1.085273316856529</v>
+      </c>
+      <c r="D114">
         <v>0.9679054054054055</v>
       </c>
-      <c r="D114">
-        <v>1.085273316856529</v>
-      </c>
       <c r="E114">
+        <v>1.063561847988078</v>
+      </c>
+      <c r="F114">
         <v>1.193593314763231</v>
       </c>
-      <c r="F114">
-        <v>1.063561847988078</v>
-      </c>
       <c r="G114">
-        <v>1.092400369482028</v>
+        <v>1.077729380550637</v>
       </c>
       <c r="H114">
         <v>1.058532049862497</v>
@@ -4289,19 +4283,19 @@
         <v>1.088359330647005</v>
       </c>
       <c r="C115">
+        <v>1.100747512008352</v>
+      </c>
+      <c r="D115">
         <v>0.9787644787644788</v>
       </c>
-      <c r="D115">
-        <v>1.100747512008352</v>
-      </c>
       <c r="E115">
+        <v>1.02973174366617</v>
+      </c>
+      <c r="F115">
         <v>1.227211603112093</v>
       </c>
-      <c r="F115">
-        <v>1.02973174366617</v>
-      </c>
       <c r="G115">
-        <v>1.097813190873089</v>
+        <v>1.082565311717605</v>
       </c>
       <c r="H115">
         <v>1.066410035322148</v>
@@ -4318,19 +4312,19 @@
         <v>1.070154767667137</v>
       </c>
       <c r="C116">
+        <v>1.113809018910833</v>
+      </c>
+      <c r="D116">
         <v>0.9638030888030887</v>
       </c>
-      <c r="D116">
-        <v>1.113809018910833</v>
-      </c>
       <c r="E116">
+        <v>1.033383010432191</v>
+      </c>
+      <c r="F116">
         <v>1.212563634617232</v>
       </c>
-      <c r="F116">
-        <v>1.033383010432191</v>
-      </c>
       <c r="G116">
-        <v>1.094183648048842</v>
+        <v>1.075432906785374</v>
       </c>
       <c r="H116">
         <v>1.060900471328436</v>
@@ -4347,19 +4341,19 @@
         <v>1.089034108704268</v>
       </c>
       <c r="C117">
+        <v>1.131908687253101</v>
+      </c>
+      <c r="D117">
         <v>0.9642857142857143</v>
       </c>
-      <c r="D117">
-        <v>1.131908687253101</v>
-      </c>
       <c r="E117">
+        <v>1.056482861400894</v>
+      </c>
+      <c r="F117">
         <v>1.235616175199308</v>
       </c>
-      <c r="F117">
-        <v>1.056482861400894</v>
-      </c>
       <c r="G117">
-        <v>1.112666908837074</v>
+        <v>1.09171403721615</v>
       </c>
       <c r="H117">
         <v>1.070094595507224</v>
@@ -4373,28 +4367,289 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.112480496356314</v>
+        <v>1.112480540305299</v>
       </c>
       <c r="C118">
-        <v>0.9642857142857143</v>
+        <v>1.146698010360243</v>
       </c>
       <c r="D118">
-        <v>1.146698047603815</v>
+        <v>0.9727316602316602</v>
       </c>
       <c r="E118">
-        <v>1.235616175199308</v>
+        <v>1.067287630402384</v>
       </c>
       <c r="F118">
-        <v>1.056482861400894</v>
+        <v>1.267217366247239</v>
       </c>
       <c r="G118">
-        <v>1.119295047381258</v>
+        <v>1.109206483053514</v>
       </c>
       <c r="H118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="I118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.100696909300855</v>
+      </c>
+      <c r="C119">
+        <v>1.160105385900947</v>
+      </c>
+      <c r="D119">
+        <v>0.9682673745173745</v>
+      </c>
+      <c r="E119">
+        <v>1.04903129657228</v>
+      </c>
+      <c r="F119">
+        <v>1.270194986072424</v>
+      </c>
+      <c r="G119">
+        <v>1.104473701190745</v>
+      </c>
+      <c r="H119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="I119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.09942673970187</v>
+      </c>
+      <c r="C120">
+        <v>1.183642777137457</v>
+      </c>
+      <c r="D120">
+        <v>0.9639237451737452</v>
+      </c>
+      <c r="E120">
+        <v>1.060134128166915</v>
+      </c>
+      <c r="F120">
+        <v>1.303813274421285</v>
+      </c>
+      <c r="G120">
+        <v>1.117351476545402</v>
+      </c>
+      <c r="H120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="I120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.123290847801254</v>
+      </c>
+      <c r="C121">
+        <v>1.161165300715214</v>
+      </c>
+      <c r="D121">
+        <v>0.9638030888030887</v>
+      </c>
+      <c r="E121">
+        <v>1.068479880774963</v>
+      </c>
+      <c r="F121">
+        <v>1.286667947363366</v>
+      </c>
+      <c r="G121">
+        <v>1.115294747799913</v>
+      </c>
+      <c r="H121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="I121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.069605932749586</v>
+      </c>
+      <c r="C122">
+        <v>1.138213688792936</v>
+      </c>
+      <c r="D122">
+        <v>0.9461872586872587</v>
+      </c>
+      <c r="E122">
+        <v>1.026751117734724</v>
+      </c>
+      <c r="F122">
+        <v>1.282105465373163</v>
+      </c>
+      <c r="G122">
+        <v>1.089738413141602</v>
+      </c>
+      <c r="H122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="I122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.05748509583728</v>
+      </c>
+      <c r="C123">
+        <v>1.144097055854669</v>
+      </c>
+      <c r="D123">
+        <v>0.9251930501930502</v>
+      </c>
+      <c r="E123">
+        <v>1.03301043219076</v>
+      </c>
+      <c r="F123">
+        <v>1.317500720391893</v>
+      </c>
+      <c r="G123">
+        <v>1.094123819655419</v>
+      </c>
+      <c r="H123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="I123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.020819439655429</v>
+      </c>
+      <c r="C124">
+        <v>1.134395912304448</v>
+      </c>
+      <c r="D124">
+        <v>0.9235038610038609</v>
+      </c>
+      <c r="E124">
+        <v>1.027719821162444</v>
+      </c>
+      <c r="F124">
+        <v>1.319085582556911</v>
+      </c>
+      <c r="G124">
+        <v>1.086979235175789</v>
+      </c>
+      <c r="H124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="I124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.052525130651907</v>
+      </c>
+      <c r="C125">
+        <v>1.18707277355475</v>
+      </c>
+      <c r="D125">
+        <v>0.924831081081081</v>
+      </c>
+      <c r="E125">
+        <v>1.04344262295082</v>
+      </c>
+      <c r="F125">
+        <v>1.392997790798194</v>
+      </c>
+      <c r="G125">
+        <v>1.120267611733356</v>
+      </c>
+      <c r="H125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="I125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.036187901421783</v>
+      </c>
+      <c r="C126">
+        <v>1.203272436244684</v>
+      </c>
+      <c r="D126">
+        <v>0.9074565637065637</v>
+      </c>
+      <c r="E126">
+        <v>1.020417287630402</v>
+      </c>
+      <c r="F126">
+        <v>1.415810200749208</v>
+      </c>
+      <c r="G126">
+        <v>1.115853555229852</v>
+      </c>
+      <c r="H126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="I126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.037749189093626</v>
+      </c>
+      <c r="C127">
+        <v>1.206036207232322</v>
+      </c>
+      <c r="D127">
+        <v>0.9025096525096525</v>
+      </c>
+      <c r="E127">
+        <v>0.9888226527570789</v>
+      </c>
+      <c r="F127">
+        <v>1.439919316107963</v>
+      </c>
+      <c r="G127">
+        <v>1.113286079884417</v>
+      </c>
+      <c r="H127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="I127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4506,18 +4761,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -4549,19 +4804,16 @@
       <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -4582,27 +4834,24 @@
         <v>0.125</v>
       </c>
       <c r="J2">
-        <v>63.98</v>
+        <v>10.78719997406006</v>
       </c>
       <c r="K2">
-        <v>11.5</v>
+        <v>59.80680084228516</v>
       </c>
       <c r="L2">
-        <v>25.06</v>
-      </c>
-      <c r="M2">
-        <v>49.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>49.5421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
@@ -4620,30 +4869,27 @@
         <v>70</v>
       </c>
       <c r="I3">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="J3">
-        <v>49.44</v>
+        <v>4.518700122833252</v>
       </c>
       <c r="K3">
-        <v>3.39</v>
+        <v>39.26179885864258</v>
       </c>
       <c r="L3">
-        <v>-7.1</v>
-      </c>
-      <c r="M3">
-        <v>-7.78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>21.5733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -4661,27 +4907,24 @@
         <v>71</v>
       </c>
       <c r="I4">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="J4">
-        <v>36.67</v>
+        <v>3.147300004959106</v>
       </c>
       <c r="K4">
-        <v>4.21</v>
+        <v>44.04880142211914</v>
       </c>
       <c r="L4">
-        <v>14.81</v>
-      </c>
-      <c r="M4">
-        <v>21.57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>-7.7804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -4705,24 +4948,21 @@
         <v>0.25</v>
       </c>
       <c r="J5">
-        <v>133.48</v>
+        <v>12.167799949646</v>
       </c>
       <c r="K5">
-        <v>9.199999999999999</v>
+        <v>51.78060150146484</v>
       </c>
       <c r="L5">
-        <v>4.83</v>
-      </c>
-      <c r="M5">
-        <v>38.77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -4746,16 +4986,13 @@
         <v>0.25</v>
       </c>
       <c r="J6">
-        <v>55.64</v>
+        <v>10.4798002243042</v>
       </c>
       <c r="K6">
-        <v>12.65</v>
+        <v>152.8901977539062</v>
       </c>
       <c r="L6">
-        <v>5.22</v>
-      </c>
-      <c r="M6">
-        <v>11.33</v>
+        <v>38.7678</v>
       </c>
     </row>
   </sheetData>
@@ -4982,7 +5219,7 @@
         <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
         <v>166</v>
@@ -5022,7 +5259,7 @@
         <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
         <v>168</v>
@@ -5042,7 +5279,7 @@
         <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F14" t="s">
         <v>169</v>
@@ -5062,7 +5299,7 @@
         <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
         <v>170</v>
@@ -5195,7 +5432,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5211,101 +5448,90 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
